--- a/AfDD_2023_Annex_Table_Tab31.xlsx
+++ b/AfDD_2023_Annex_Table_Tab31.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E40C3A10-5411-4B42-9F7C-FB4E9A62CD3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5277826B-26C7-4B2F-B1AB-D1DE62EC5944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{224A2CD3-FC6D-4847-AB2D-13275D83034D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4DBC0FA7-CB17-41AA-B8B4-DA4C821DC9D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab31" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab31'!$A$2:$I$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab31'!$A$1:$I$98</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -261,7 +261,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>South Sudan</t>
+    <t>South Sudan*</t>
   </si>
   <si>
     <t>SDN</t>
@@ -393,7 +393,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigeria*</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>SEN</t>
@@ -540,7 +540,7 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
-    <t>Source: The Changing Wealth of Nations Dataset, World Bank 2021.</t>
+    <t>Source: International Labour Organization - ILOSTAT (retrieved 14/05/2023), The Informality Database (Elgin, C., M. A. Kose, F. Ohnsorge, and S. Yu. 2021. “Understanding Informality.” CERP Discussion Paper 16497, Centre for Economic Policy Research, London).</t>
   </si>
   <si>
     <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
@@ -562,12 +562,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
-    <numFmt numFmtId="166" formatCode="#,##0.000_);\(#,##0.000\)"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -930,7 +929,7 @@
     <xf numFmtId="165" fontId="10" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -942,7 +941,7 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -954,7 +953,7 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -969,7 +968,7 @@
     <xf numFmtId="165" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -981,7 +980,7 @@
     <xf numFmtId="165" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -999,7 +998,7 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1011,7 +1010,7 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1026,7 +1025,7 @@
     <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1038,7 +1037,7 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1050,7 +1049,7 @@
     <xf numFmtId="165" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1064,8 +1063,8 @@
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1381,7 +1380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12FD267-90EC-4672-89C1-3AC6525D0172}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6A1813-92A9-4762-AD34-8A91EDEF6EA8}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1393,9 +1392,9 @@
   <cols>
     <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.36328125" style="59" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.36328125" style="60" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="12.36328125" style="59" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.36328125" style="59" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.36328125" style="60" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="12.36328125" style="59" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1424,16 +1423,16 @@
       <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="7" t="s">
@@ -1456,16 +1455,16 @@
       <c r="D3" s="12">
         <v>95.5</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="13">
         <v>84.8</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="11">
         <v>39.174072265625</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="12">
         <v>43.328170776367202</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="12" t="s">
@@ -1488,16 +1487,16 @@
       <c r="D4" s="16">
         <v>68.599999999999994</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="17">
         <v>74.5</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="15">
+      <c r="F4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="16">
         <v>30.124382019043001</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="15" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="16" t="s">
@@ -1520,16 +1519,16 @@
       <c r="D5" s="20">
         <v>63</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="21">
         <v>54.8</v>
       </c>
-      <c r="F5" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="19">
+      <c r="F5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="20">
         <v>38.931453704833999</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="19">
         <v>73.5</v>
       </c>
       <c r="I5" s="20">
@@ -1552,16 +1551,16 @@
       <c r="D6" s="20">
         <v>81.099999999999994</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="21">
         <v>80.7</v>
       </c>
-      <c r="F6" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="19">
+      <c r="F6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="20">
         <v>30.045162200927699</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="19">
         <v>68.099999999999994</v>
       </c>
       <c r="I6" s="20">
@@ -1584,16 +1583,16 @@
       <c r="D7" s="20">
         <v>90.9</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="21">
         <v>83.2</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="19">
         <v>40.942081451416001</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="20">
         <v>37.5955200195313</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="19">
         <v>71.7</v>
       </c>
       <c r="I7" s="20">
@@ -1616,16 +1615,16 @@
       <c r="D8" s="20">
         <v>98.4</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="21">
         <v>92.7</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="19">
         <v>26.007287979126001</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="20">
         <v>38.1037406921387</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="19">
         <v>58</v>
       </c>
       <c r="I8" s="20">
@@ -1648,16 +1647,16 @@
       <c r="D9" s="20">
         <v>58.4</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="21">
         <v>53.2</v>
       </c>
-      <c r="F9" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="19">
+      <c r="F9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="20">
         <v>29.195957183837901</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="19">
         <v>41.7</v>
       </c>
       <c r="I9" s="20">
@@ -1680,16 +1679,16 @@
       <c r="D10" s="20">
         <v>43.9</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="21">
         <v>39.700000000000003</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="19">
         <v>23.608823776245099</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="20">
         <v>28.280643463134801</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="19" t="s">
         <v>13</v>
       </c>
       <c r="I10" s="20" t="s">
@@ -1712,16 +1711,16 @@
       <c r="D11" s="16">
         <v>90.2</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="17">
         <v>82.4</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="15">
         <v>39.798908233642599</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="16">
         <v>46.224048614502003</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="15">
         <v>73.3</v>
       </c>
       <c r="I11" s="16">
@@ -1744,16 +1743,16 @@
       <c r="D12" s="20">
         <v>91.6</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="21">
         <v>85.4</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="19">
         <v>63.403850555419901</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="20">
         <v>58.677005767822301</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="19">
         <v>73.900000000000006</v>
       </c>
       <c r="I12" s="20">
@@ -1776,16 +1775,16 @@
       <c r="D13" s="25">
         <v>78.16</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="26">
         <v>73.14</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="24">
         <v>28.944616723593899</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="25">
         <v>33.238860508478602</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="24">
         <v>65.742857142857204</v>
       </c>
       <c r="I13" s="25">
@@ -1808,16 +1807,16 @@
       <c r="D14" s="20">
         <v>99.1</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="21">
         <v>97.4</v>
       </c>
-      <c r="F14" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="19">
+      <c r="F14" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="20">
         <v>40.413516998291001</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="19">
         <v>51.3</v>
       </c>
       <c r="I14" s="20">
@@ -1840,16 +1839,16 @@
       <c r="D15" s="20">
         <v>91.7</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="21">
         <v>82.8</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="19">
         <v>28.6922492980957</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="20">
         <v>30.182653427123999</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="19">
         <v>80.3</v>
       </c>
       <c r="I15" s="20">
@@ -1872,16 +1871,16 @@
       <c r="D16" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="19">
+      <c r="E16" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="20">
         <v>43.0407524108887</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="19" t="s">
         <v>13</v>
       </c>
       <c r="I16" s="20" t="s">
@@ -1904,16 +1903,16 @@
       <c r="D17" s="29">
         <v>99</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="30">
         <v>95.2</v>
       </c>
-      <c r="F17" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="28">
+      <c r="F17" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="29">
         <v>43.871463775634801</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="28">
         <v>80</v>
       </c>
       <c r="I17" s="29">
@@ -1936,16 +1935,16 @@
       <c r="D18" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="28">
+      <c r="E18" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="29">
         <v>44.942356109619098</v>
       </c>
-      <c r="H18" s="29" t="s">
+      <c r="H18" s="28" t="s">
         <v>13</v>
       </c>
       <c r="I18" s="29" t="s">
@@ -1968,16 +1967,16 @@
       <c r="D19" s="16">
         <v>97.8</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="17">
         <v>95.7</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="15">
         <v>42.388538360595703</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="16">
         <v>43.040267944335902</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H19" s="15">
         <v>78.400000000000006</v>
       </c>
       <c r="I19" s="16">
@@ -2000,16 +1999,16 @@
       <c r="D20" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="28">
+      <c r="E20" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="29">
         <v>33.7092094421387</v>
       </c>
-      <c r="H20" s="29" t="s">
+      <c r="H20" s="28" t="s">
         <v>13</v>
       </c>
       <c r="I20" s="29" t="s">
@@ -2032,16 +2031,16 @@
       <c r="D21" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="28">
+      <c r="E21" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="29">
         <v>50.099693298339901</v>
       </c>
-      <c r="H21" s="29" t="s">
+      <c r="H21" s="28" t="s">
         <v>13</v>
       </c>
       <c r="I21" s="29" t="s">
@@ -2064,16 +2063,16 @@
       <c r="D22" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="20" t="s">
+      <c r="E22" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="19" t="s">
         <v>13</v>
       </c>
       <c r="I22" s="20" t="s">
@@ -2096,16 +2095,16 @@
       <c r="D23" s="25">
         <v>96.9</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="26">
         <v>92.775000000000006</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="24">
         <v>35.551168098173399</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="25">
         <v>39.103106513558402</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="24">
         <v>72.5</v>
       </c>
       <c r="I23" s="25">
@@ -2128,16 +2127,16 @@
       <c r="D24" s="20">
         <v>90.2</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="21">
         <v>85.5</v>
       </c>
-      <c r="F24" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="19">
+      <c r="F24" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="20">
         <v>36.471908569335902</v>
       </c>
-      <c r="H24" s="20" t="s">
+      <c r="H24" s="19" t="s">
         <v>13</v>
       </c>
       <c r="I24" s="20" t="s">
@@ -2160,16 +2159,16 @@
       <c r="D25" s="20">
         <v>64.900000000000006</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="21">
         <v>45.7</v>
       </c>
-      <c r="F25" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="20">
+      <c r="F25" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="19">
         <v>22.2</v>
       </c>
       <c r="I25" s="20">
@@ -2192,16 +2191,16 @@
       <c r="D26" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="20" t="s">
+      <c r="E26" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="19" t="s">
         <v>13</v>
       </c>
       <c r="I26" s="20" t="s">
@@ -2224,16 +2223,16 @@
       <c r="D27" s="20">
         <v>87.4</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="21">
         <v>83.6</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="19">
         <v>23.325193405151399</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="20">
         <v>34.053924560546903</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="19">
         <v>23.1</v>
       </c>
       <c r="I27" s="20">
@@ -2256,16 +2255,16 @@
       <c r="D28" s="20">
         <v>90.2</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="21">
         <v>83.1</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="19">
         <v>26.018297195434599</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="20">
         <v>29.205049514770501</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="19">
         <v>68.8</v>
       </c>
       <c r="I28" s="20">
@@ -2288,16 +2287,16 @@
       <c r="D29" s="20">
         <v>96.7</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="21">
         <v>93.8</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="19">
         <v>36.980484008789098</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="20">
         <v>41.695899963378899</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H29" s="19">
         <v>71.7</v>
       </c>
       <c r="I29" s="20">
@@ -2320,16 +2319,16 @@
       <c r="D30" s="20">
         <v>25.6</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="21">
         <v>33.200000000000003</v>
       </c>
-      <c r="F30" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="19">
+      <c r="F30" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="20">
         <v>21.257339477539102</v>
       </c>
-      <c r="H30" s="20" t="s">
+      <c r="H30" s="19" t="s">
         <v>13</v>
       </c>
       <c r="I30" s="20" t="s">
@@ -2352,16 +2351,16 @@
       <c r="D31" s="20">
         <v>89.1</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="21">
         <v>85.4</v>
       </c>
-      <c r="F31" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="19">
+      <c r="F31" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="20">
         <v>34.41357421875</v>
       </c>
-      <c r="H31" s="20" t="s">
+      <c r="H31" s="19" t="s">
         <v>13</v>
       </c>
       <c r="I31" s="20" t="s">
@@ -2384,16 +2383,16 @@
       <c r="D32" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="20" t="s">
+      <c r="E32" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="19" t="s">
         <v>13</v>
       </c>
       <c r="I32" s="20" t="s">
@@ -2416,16 +2415,16 @@
       <c r="D33" s="20">
         <v>85.5</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="21">
         <v>81.099999999999994</v>
       </c>
-      <c r="F33" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="20" t="s">
+      <c r="F33" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="19" t="s">
         <v>13</v>
       </c>
       <c r="I33" s="20" t="s">
@@ -2439,31 +2438,31 @@
       <c r="A34" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="16">
+      <c r="C34" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="28">
         <v>69.8</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I34" s="29">
         <v>80</v>
       </c>
-      <c r="J34" s="17">
+      <c r="J34" s="30">
         <v>38.1</v>
       </c>
     </row>
@@ -2480,16 +2479,16 @@
       <c r="D35" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="21">
+      <c r="E35" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="19">
         <v>19.342119216918899</v>
       </c>
-      <c r="G35" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="20">
+      <c r="G35" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="19">
         <v>90.5</v>
       </c>
       <c r="I35" s="20">
@@ -2512,16 +2511,16 @@
       <c r="D36" s="20">
         <v>95.9</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="21">
         <v>90.9</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="19">
         <v>42.647056579589901</v>
       </c>
-      <c r="G36" s="19">
+      <c r="G36" s="20">
         <v>54.1004028320313</v>
       </c>
-      <c r="H36" s="20">
+      <c r="H36" s="19">
         <v>72.599999999999994</v>
       </c>
       <c r="I36" s="20">
@@ -2544,16 +2543,16 @@
       <c r="D37" s="20">
         <v>97.400000000000105</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="21">
         <v>93.1</v>
       </c>
-      <c r="F37" s="21">
+      <c r="F37" s="19">
         <v>33.702747344970703</v>
       </c>
-      <c r="G37" s="19">
+      <c r="G37" s="20">
         <v>40.345607757568402</v>
       </c>
-      <c r="H37" s="20">
+      <c r="H37" s="19">
         <v>95.2</v>
       </c>
       <c r="I37" s="20">
@@ -2576,16 +2575,16 @@
       <c r="D38" s="25">
         <v>82.29</v>
       </c>
-      <c r="E38" s="25">
+      <c r="E38" s="26">
         <v>77.540000000000006</v>
       </c>
-      <c r="F38" s="26">
+      <c r="F38" s="24">
         <v>27.858156372396099</v>
       </c>
-      <c r="G38" s="24">
+      <c r="G38" s="25">
         <v>37.024415391017101</v>
       </c>
-      <c r="H38" s="25">
+      <c r="H38" s="24">
         <v>64.237499999999997</v>
       </c>
       <c r="I38" s="25">
@@ -2608,16 +2607,16 @@
       <c r="D39" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="30">
+      <c r="E39" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="28">
         <v>27.907875061035199</v>
       </c>
-      <c r="G39" s="28">
+      <c r="G39" s="29">
         <v>31.315494537353501</v>
       </c>
-      <c r="H39" s="29" t="s">
+      <c r="H39" s="28" t="s">
         <v>13</v>
       </c>
       <c r="I39" s="29" t="s">
@@ -2640,16 +2639,16 @@
       <c r="D40" s="20">
         <v>51.9</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="21">
         <v>69.7</v>
       </c>
-      <c r="F40" s="21">
+      <c r="F40" s="19">
         <v>29.273637771606499</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G40" s="20">
         <v>31.5708312988281</v>
       </c>
-      <c r="H40" s="20">
+      <c r="H40" s="19">
         <v>43</v>
       </c>
       <c r="I40" s="20">
@@ -2672,16 +2671,16 @@
       <c r="D41" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" s="29" t="s">
+      <c r="E41" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="28" t="s">
         <v>13</v>
       </c>
       <c r="I41" s="29" t="s">
@@ -2704,16 +2703,16 @@
       <c r="D42" s="29">
         <v>91.7</v>
       </c>
-      <c r="E42" s="29">
+      <c r="E42" s="30">
         <v>88.2</v>
       </c>
-      <c r="F42" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="28">
+      <c r="F42" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="29">
         <v>33.372982025146499</v>
       </c>
-      <c r="H42" s="29">
+      <c r="H42" s="28">
         <v>78.5</v>
       </c>
       <c r="I42" s="29">
@@ -2736,16 +2735,16 @@
       <c r="D43" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="21">
+      <c r="E43" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="19">
         <v>29.637537002563501</v>
       </c>
-      <c r="G43" s="19">
+      <c r="G43" s="20">
         <v>34.077693939208999</v>
       </c>
-      <c r="H43" s="20">
+      <c r="H43" s="19">
         <v>47.3</v>
       </c>
       <c r="I43" s="20">
@@ -2768,16 +2767,16 @@
       <c r="D44" s="20">
         <v>60.3</v>
       </c>
-      <c r="E44" s="20">
+      <c r="E44" s="21">
         <v>61.6</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F44" s="19">
         <v>32.114986419677699</v>
       </c>
-      <c r="G44" s="19">
+      <c r="G44" s="20">
         <v>37.823772430419901</v>
       </c>
-      <c r="H44" s="20">
+      <c r="H44" s="19">
         <v>45.2</v>
       </c>
       <c r="I44" s="20">
@@ -2800,16 +2799,16 @@
       <c r="D45" s="25">
         <v>67.966666666666697</v>
       </c>
-      <c r="E45" s="25">
+      <c r="E45" s="26">
         <v>73.1666666666667</v>
       </c>
-      <c r="F45" s="26">
+      <c r="F45" s="24">
         <v>29.187884856894399</v>
       </c>
-      <c r="G45" s="24">
+      <c r="G45" s="25">
         <v>32.271606755037901</v>
       </c>
-      <c r="H45" s="25">
+      <c r="H45" s="24">
         <v>53.5</v>
       </c>
       <c r="I45" s="25">
@@ -2832,16 +2831,16 @@
       <c r="D46" s="20">
         <v>98.6</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E46" s="21">
         <v>95.3</v>
       </c>
-      <c r="F46" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="19">
+      <c r="F46" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="20">
         <v>47.467250823974602</v>
       </c>
-      <c r="H46" s="20">
+      <c r="H46" s="19">
         <v>66.8</v>
       </c>
       <c r="I46" s="20">
@@ -2864,16 +2863,16 @@
       <c r="D47" s="20">
         <v>97.9</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E47" s="21">
         <v>93.8</v>
       </c>
-      <c r="F47" s="21">
+      <c r="F47" s="19">
         <v>31.202632904052699</v>
       </c>
-      <c r="G47" s="19">
+      <c r="G47" s="20">
         <v>38.239151000976598</v>
       </c>
-      <c r="H47" s="20" t="s">
+      <c r="H47" s="19" t="s">
         <v>13</v>
       </c>
       <c r="I47" s="20" t="s">
@@ -2896,16 +2895,16 @@
       <c r="D48" s="29">
         <v>63.9</v>
       </c>
-      <c r="E48" s="29">
+      <c r="E48" s="30">
         <v>63.7</v>
       </c>
-      <c r="F48" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="28">
+      <c r="F48" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="29">
         <v>34.613147735595703</v>
       </c>
-      <c r="H48" s="29" t="s">
+      <c r="H48" s="28" t="s">
         <v>13</v>
       </c>
       <c r="I48" s="29" t="s">
@@ -2928,16 +2927,16 @@
       <c r="D49" s="20">
         <v>95.9</v>
       </c>
-      <c r="E49" s="20">
+      <c r="E49" s="21">
         <v>88.5</v>
       </c>
-      <c r="F49" s="21">
+      <c r="F49" s="19">
         <v>42.042930603027401</v>
       </c>
-      <c r="G49" s="19">
+      <c r="G49" s="20">
         <v>38.693267822265597</v>
       </c>
-      <c r="H49" s="20">
+      <c r="H49" s="19">
         <v>75.599999999999994</v>
       </c>
       <c r="I49" s="20">
@@ -2960,16 +2959,16 @@
       <c r="D50" s="20">
         <v>86.8</v>
       </c>
-      <c r="E50" s="20">
+      <c r="E50" s="21">
         <v>72.599999999999994</v>
       </c>
-      <c r="F50" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="19">
+      <c r="F50" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="20">
         <v>46.844100952148402</v>
       </c>
-      <c r="H50" s="20">
+      <c r="H50" s="19">
         <v>71.099999999999994</v>
       </c>
       <c r="I50" s="20">
@@ -2992,16 +2991,16 @@
       <c r="D51" s="16">
         <v>78.8</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E51" s="17">
         <v>77.2</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F51" s="15">
         <v>38.204689025878899</v>
       </c>
-      <c r="G51" s="15">
+      <c r="G51" s="16">
         <v>37.569698333740199</v>
       </c>
-      <c r="H51" s="16">
+      <c r="H51" s="15">
         <v>69.400000000000006</v>
       </c>
       <c r="I51" s="16">
@@ -3024,16 +3023,16 @@
       <c r="D52" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" s="19">
+      <c r="E52" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="20">
         <v>36.470741271972699</v>
       </c>
-      <c r="H52" s="20">
+      <c r="H52" s="19">
         <v>75.7</v>
       </c>
       <c r="I52" s="20">
@@ -3056,16 +3055,16 @@
       <c r="D53" s="20">
         <v>97.3</v>
       </c>
-      <c r="E53" s="20">
+      <c r="E53" s="21">
         <v>92.5</v>
       </c>
-      <c r="F53" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" s="19">
+      <c r="F53" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="20">
         <v>36.779396057128899</v>
       </c>
-      <c r="H53" s="20" t="s">
+      <c r="H53" s="19" t="s">
         <v>13</v>
       </c>
       <c r="I53" s="20" t="s">
@@ -3088,16 +3087,16 @@
       <c r="D54" s="20">
         <v>93.7</v>
       </c>
-      <c r="E54" s="20">
+      <c r="E54" s="21">
         <v>85.7</v>
       </c>
-      <c r="F54" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" s="19">
+      <c r="F54" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="20">
         <v>44.585964202880902</v>
       </c>
-      <c r="H54" s="20">
+      <c r="H54" s="19">
         <v>68.7</v>
       </c>
       <c r="I54" s="20">
@@ -3120,16 +3119,16 @@
       <c r="D55" s="20">
         <v>95.4</v>
       </c>
-      <c r="E55" s="20">
+      <c r="E55" s="21">
         <v>93</v>
       </c>
-      <c r="F55" s="21">
+      <c r="F55" s="19">
         <v>33.783771514892599</v>
       </c>
-      <c r="G55" s="19">
+      <c r="G55" s="20">
         <v>39.582740783691399</v>
       </c>
-      <c r="H55" s="20">
+      <c r="H55" s="19">
         <v>79.5</v>
       </c>
       <c r="I55" s="20">
@@ -3152,16 +3151,16 @@
       <c r="D56" s="20">
         <v>84.4</v>
       </c>
-      <c r="E56" s="20">
+      <c r="E56" s="21">
         <v>68.8</v>
       </c>
-      <c r="F56" s="21">
+      <c r="F56" s="19">
         <v>35.947982788085902</v>
       </c>
-      <c r="G56" s="19">
+      <c r="G56" s="20">
         <v>37.834983825683601</v>
       </c>
-      <c r="H56" s="20">
+      <c r="H56" s="19">
         <v>85.1</v>
       </c>
       <c r="I56" s="20">
@@ -3175,31 +3174,31 @@
       <c r="A57" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="C57" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="30">
+      <c r="C57" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="19">
         <v>48.167079925537102</v>
       </c>
-      <c r="G57" s="28">
+      <c r="G57" s="20">
         <v>56.235744476318402</v>
       </c>
-      <c r="H57" s="29">
+      <c r="H57" s="19">
         <v>46.2</v>
       </c>
-      <c r="I57" s="29">
+      <c r="I57" s="20">
         <v>57.7</v>
       </c>
-      <c r="J57" s="30">
+      <c r="J57" s="21">
         <v>18.399999999999999</v>
       </c>
     </row>
@@ -3216,16 +3215,16 @@
       <c r="D58" s="20">
         <v>91.9</v>
       </c>
-      <c r="E58" s="20">
+      <c r="E58" s="21">
         <v>89.2</v>
       </c>
-      <c r="F58" s="21">
+      <c r="F58" s="19">
         <v>37.9278373718262</v>
       </c>
-      <c r="G58" s="19">
+      <c r="G58" s="20">
         <v>41.1049613952637</v>
       </c>
-      <c r="H58" s="20">
+      <c r="H58" s="19">
         <v>76.400000000000006</v>
       </c>
       <c r="I58" s="20">
@@ -3248,16 +3247,16 @@
       <c r="D59" s="20">
         <v>96.6</v>
       </c>
-      <c r="E59" s="20">
+      <c r="E59" s="21">
         <v>89.3</v>
       </c>
-      <c r="F59" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" s="19">
+      <c r="F59" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="20">
         <v>41.743335723877003</v>
       </c>
-      <c r="H59" s="20">
+      <c r="H59" s="19">
         <v>62.5</v>
       </c>
       <c r="I59" s="20">
@@ -3280,16 +3279,16 @@
       <c r="D60" s="16">
         <v>95.9</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E60" s="17">
         <v>83.6</v>
       </c>
-      <c r="F60" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" s="15">
+      <c r="F60" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="16">
         <v>33.010009765625</v>
       </c>
-      <c r="H60" s="16">
+      <c r="H60" s="15">
         <v>68.7</v>
       </c>
       <c r="I60" s="16">
@@ -3312,16 +3311,16 @@
       <c r="D61" s="25">
         <v>90.546153846153899</v>
       </c>
-      <c r="E61" s="25">
+      <c r="E61" s="26">
         <v>84.092307692307699</v>
       </c>
-      <c r="F61" s="26">
+      <c r="F61" s="24">
         <v>45.048609969726101</v>
       </c>
-      <c r="G61" s="24">
+      <c r="G61" s="25">
         <v>50.072982680359303</v>
       </c>
-      <c r="H61" s="25">
+      <c r="H61" s="24">
         <v>70.474999999999994</v>
       </c>
       <c r="I61" s="25">
@@ -3344,16 +3343,16 @@
       <c r="D62" s="35">
         <v>84.3275000000001</v>
       </c>
-      <c r="E62" s="35">
+      <c r="E62" s="36">
         <v>79.765000000000001</v>
       </c>
-      <c r="F62" s="36">
+      <c r="F62" s="34">
         <v>33.095499071903099</v>
       </c>
-      <c r="G62" s="34">
+      <c r="G62" s="35">
         <v>38.081910700890099</v>
       </c>
-      <c r="H62" s="35">
+      <c r="H62" s="34">
         <v>66.394285714285701</v>
       </c>
       <c r="I62" s="35">
@@ -3376,16 +3375,16 @@
       <c r="D63" s="39">
         <v>40.804597701149397</v>
       </c>
-      <c r="E63" s="39">
+      <c r="E63" s="40">
         <v>41.820689655172401</v>
       </c>
-      <c r="F63" s="40">
+      <c r="F63" s="38">
         <v>16.661437465065301</v>
       </c>
-      <c r="G63" s="38">
+      <c r="G63" s="39">
         <v>18.848375928823099</v>
       </c>
-      <c r="H63" s="39">
+      <c r="H63" s="38">
         <v>46.395312500000003</v>
       </c>
       <c r="I63" s="39">
@@ -3408,16 +3407,16 @@
       <c r="D64" s="35">
         <v>55.186363636363602</v>
       </c>
-      <c r="E64" s="35">
+      <c r="E64" s="36">
         <v>58.145454545454598</v>
       </c>
-      <c r="F64" s="36">
+      <c r="F64" s="34">
         <v>29.845690604842499</v>
       </c>
-      <c r="G64" s="34">
+      <c r="G64" s="35">
         <v>35.1782096885388</v>
       </c>
-      <c r="H64" s="35">
+      <c r="H64" s="34">
         <v>69.738461538461607</v>
       </c>
       <c r="I64" s="35">
@@ -3440,16 +3439,16 @@
       <c r="D65" s="44">
         <v>72.73</v>
       </c>
-      <c r="E65" s="44">
+      <c r="E65" s="45">
         <v>73.034999999999997</v>
       </c>
-      <c r="F65" s="45">
+      <c r="F65" s="43">
         <v>14.6222145469468</v>
       </c>
-      <c r="G65" s="43">
+      <c r="G65" s="44">
         <v>17.675093716528998</v>
       </c>
-      <c r="H65" s="44">
+      <c r="H65" s="43">
         <v>41.759090909090901</v>
       </c>
       <c r="I65" s="44">
@@ -3472,16 +3471,16 @@
       <c r="D66" s="48">
         <v>54.512598425196899</v>
       </c>
-      <c r="E66" s="48">
+      <c r="E66" s="49">
         <v>53.771653543307103</v>
       </c>
-      <c r="F66" s="49">
+      <c r="F66" s="47">
         <v>17.444689734354601</v>
       </c>
-      <c r="G66" s="47">
+      <c r="G66" s="48">
         <v>19.7889421733211</v>
       </c>
-      <c r="H66" s="48">
+      <c r="H66" s="47">
         <v>53.465656565656602</v>
       </c>
       <c r="I66" s="48">
@@ -3504,16 +3503,16 @@
       <c r="D67" s="52">
         <v>80.694117647058903</v>
       </c>
-      <c r="E67" s="52">
+      <c r="E67" s="53">
         <v>77.335294117647095</v>
       </c>
-      <c r="F67" s="53">
+      <c r="F67" s="51">
         <v>29.505618223954201</v>
       </c>
-      <c r="G67" s="51">
+      <c r="G67" s="52">
         <v>33.913738007329798</v>
       </c>
-      <c r="H67" s="52">
+      <c r="H67" s="51">
         <v>62.985714285714302</v>
       </c>
       <c r="I67" s="52">
@@ -3536,16 +3535,16 @@
       <c r="D68" s="44">
         <v>86.8333333333334</v>
       </c>
-      <c r="E68" s="44">
+      <c r="E68" s="45">
         <v>81.711111111111094</v>
       </c>
-      <c r="F68" s="45">
+      <c r="F68" s="43">
         <v>35.923758618056702</v>
       </c>
-      <c r="G68" s="43">
+      <c r="G68" s="44">
         <v>41.1874113228426</v>
       </c>
-      <c r="H68" s="44">
+      <c r="H68" s="43">
         <v>65.761111111111106</v>
       </c>
       <c r="I68" s="44">
@@ -3563,28 +3562,28 @@
         <v>133</v>
       </c>
       <c r="C69" s="43">
-        <v>92.08</v>
+        <v>92.866666666666703</v>
       </c>
       <c r="D69" s="44">
-        <v>94.34</v>
-      </c>
-      <c r="E69" s="44">
-        <v>89.98</v>
-      </c>
-      <c r="F69" s="45">
-        <v>32.768984924924702</v>
-      </c>
-      <c r="G69" s="43">
-        <v>39.0070213017909</v>
-      </c>
-      <c r="H69" s="44">
-        <v>71.540000000000006</v>
+        <v>94.9166666666667</v>
+      </c>
+      <c r="E69" s="45">
+        <v>90.933333333333394</v>
+      </c>
+      <c r="F69" s="43">
+        <v>34.396656889463102</v>
+      </c>
+      <c r="G69" s="44">
+        <v>39.649865177277597</v>
+      </c>
+      <c r="H69" s="43">
+        <v>72.683333333333394</v>
       </c>
       <c r="I69" s="44">
-        <v>78.98</v>
+        <v>77.3</v>
       </c>
       <c r="J69" s="45">
-        <v>36.4</v>
+        <v>36.766666666666701</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
@@ -3600,16 +3599,16 @@
       <c r="D70" s="44">
         <v>95.366666666666703</v>
       </c>
-      <c r="E70" s="44">
+      <c r="E70" s="45">
         <v>90.216666666666697</v>
       </c>
-      <c r="F70" s="45">
+      <c r="F70" s="43">
         <v>37.485582678698201</v>
       </c>
-      <c r="G70" s="43">
+      <c r="G70" s="44">
         <v>40.550318694690297</v>
       </c>
-      <c r="H70" s="44">
+      <c r="H70" s="43">
         <v>72.5</v>
       </c>
       <c r="I70" s="44">
@@ -3632,16 +3631,16 @@
       <c r="D71" s="44">
         <v>90.546153846153899</v>
       </c>
-      <c r="E71" s="44">
+      <c r="E71" s="45">
         <v>84.092307692307699</v>
       </c>
-      <c r="F71" s="45">
+      <c r="F71" s="43">
         <v>45.048609969726101</v>
       </c>
-      <c r="G71" s="43">
+      <c r="G71" s="44">
         <v>50.072982680359303</v>
       </c>
-      <c r="H71" s="44">
+      <c r="H71" s="43">
         <v>70.474999999999994</v>
       </c>
       <c r="I71" s="44">
@@ -3664,16 +3663,16 @@
       <c r="D72" s="44">
         <v>85.08</v>
       </c>
-      <c r="E72" s="44">
+      <c r="E72" s="45">
         <v>77.319999999999993</v>
       </c>
-      <c r="F72" s="45">
+      <c r="F72" s="43">
         <v>24.4610507487943</v>
       </c>
-      <c r="G72" s="43">
+      <c r="G72" s="44">
         <v>33.170097088185699</v>
       </c>
-      <c r="H72" s="44">
+      <c r="H72" s="43">
         <v>61.6</v>
       </c>
       <c r="I72" s="44">
@@ -3696,16 +3695,16 @@
       <c r="D73" s="44">
         <v>79.186666666666696</v>
       </c>
-      <c r="E73" s="44">
+      <c r="E73" s="45">
         <v>75.366666666666703</v>
       </c>
-      <c r="F73" s="45">
+      <c r="F73" s="43">
         <v>31.390574520253601</v>
       </c>
-      <c r="G73" s="43">
+      <c r="G73" s="44">
         <v>35.746629057349999</v>
       </c>
-      <c r="H73" s="44">
+      <c r="H73" s="43">
         <v>68.290000000000006</v>
       </c>
       <c r="I73" s="44">
@@ -3728,16 +3727,16 @@
       <c r="D74" s="44">
         <v>76</v>
       </c>
-      <c r="E74" s="44">
+      <c r="E74" s="45">
         <v>74.900000000000006</v>
       </c>
-      <c r="F74" s="45">
+      <c r="F74" s="43">
         <v>29.0767895762995</v>
       </c>
-      <c r="G74" s="43">
+      <c r="G74" s="44">
         <v>33.157172721886198</v>
       </c>
-      <c r="H74" s="44">
+      <c r="H74" s="43">
         <v>57</v>
       </c>
       <c r="I74" s="44">
@@ -3760,16 +3759,16 @@
       <c r="D75" s="48">
         <v>88.775000000000006</v>
       </c>
-      <c r="E75" s="48">
+      <c r="E75" s="49">
         <v>83.424999999999997</v>
       </c>
-      <c r="F75" s="49">
+      <c r="F75" s="47">
         <v>37.194110406794302</v>
       </c>
-      <c r="G75" s="47">
+      <c r="G75" s="48">
         <v>42.3305047577919</v>
       </c>
-      <c r="H75" s="48">
+      <c r="H75" s="47">
         <v>58</v>
       </c>
       <c r="I75" s="48">
@@ -3792,16 +3791,16 @@
       <c r="D76" s="52">
         <v>73.185714285714297</v>
       </c>
-      <c r="E76" s="52">
+      <c r="E76" s="53">
         <v>71.585714285714303</v>
       </c>
-      <c r="F76" s="53">
+      <c r="F76" s="51">
         <v>23.185484504003199</v>
       </c>
-      <c r="G76" s="51">
+      <c r="G76" s="52">
         <v>26.541724472037298</v>
       </c>
-      <c r="H76" s="52">
+      <c r="H76" s="51">
         <v>44.9375</v>
       </c>
       <c r="I76" s="52">
@@ -3819,21 +3818,21 @@
         <v>141</v>
       </c>
       <c r="C77" s="43">
-        <v>54.566666666666698</v>
+        <v>54.227272727272798</v>
       </c>
       <c r="D77" s="44">
-        <v>53.283333333333303</v>
-      </c>
-      <c r="E77" s="44">
-        <v>55.358333333333299</v>
-      </c>
-      <c r="F77" s="45">
-        <v>30.718005232394301</v>
-      </c>
-      <c r="G77" s="43">
-        <v>36.500117649971898</v>
-      </c>
-      <c r="H77" s="44">
+        <v>53.209090909090897</v>
+      </c>
+      <c r="E77" s="45">
+        <v>54.8272727272727</v>
+      </c>
+      <c r="F77" s="43">
+        <v>30.713976506919401</v>
+      </c>
+      <c r="G77" s="44">
+        <v>36.522084911411</v>
+      </c>
+      <c r="H77" s="43">
         <v>69.412499999999994</v>
       </c>
       <c r="I77" s="44">
@@ -3856,16 +3855,16 @@
       <c r="D78" s="44">
         <v>7.2923076923077002</v>
       </c>
-      <c r="E78" s="44">
+      <c r="E78" s="45">
         <v>8.6807692307692292</v>
       </c>
-      <c r="F78" s="45">
+      <c r="F78" s="43">
         <v>18.529163798793999</v>
       </c>
-      <c r="G78" s="43">
+      <c r="G78" s="44">
         <v>19.552255903085399</v>
       </c>
-      <c r="H78" s="44">
+      <c r="H78" s="43">
         <v>36.615384615384599</v>
       </c>
       <c r="I78" s="44">
@@ -3888,16 +3887,16 @@
       <c r="D79" s="48">
         <v>14.530303030302999</v>
       </c>
-      <c r="E79" s="48">
+      <c r="E79" s="49">
         <v>15.012121212121199</v>
       </c>
-      <c r="F79" s="49">
+      <c r="F79" s="47">
         <v>14.400089551889801</v>
       </c>
-      <c r="G79" s="47">
+      <c r="G79" s="48">
         <v>15.337807197482601</v>
       </c>
-      <c r="H79" s="48">
+      <c r="H79" s="47">
         <v>35.361538461538501</v>
       </c>
       <c r="I79" s="48">
@@ -3920,23 +3919,23 @@
       <c r="D80" s="52">
         <v>87.525000000000006</v>
       </c>
-      <c r="E80" s="52">
+      <c r="E80" s="53">
         <v>82.974999999999994</v>
       </c>
-      <c r="F80" s="53">
-        <v>41.298774539166402</v>
-      </c>
-      <c r="G80" s="51">
-        <v>47.113215231312502</v>
-      </c>
-      <c r="H80" s="52">
-        <v>68.233333333333405</v>
+      <c r="F80" s="51">
+        <v>31.373430935684102</v>
+      </c>
+      <c r="G80" s="52">
+        <v>36.0001314194038</v>
+      </c>
+      <c r="H80" s="51">
+        <v>76.099999999999994</v>
       </c>
       <c r="I80" s="52">
-        <v>70</v>
+        <v>77.433333333333394</v>
       </c>
       <c r="J80" s="53">
-        <v>34.200000000000003</v>
+        <v>40.766666666666701</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
@@ -3952,16 +3951,16 @@
       <c r="D81" s="44">
         <v>56.487499999999997</v>
       </c>
-      <c r="E81" s="44">
+      <c r="E81" s="45">
         <v>61.024999999999999</v>
       </c>
-      <c r="F81" s="45">
+      <c r="F81" s="43">
         <v>28.327572765561602</v>
       </c>
-      <c r="G81" s="43">
+      <c r="G81" s="44">
         <v>31.1283878938908</v>
       </c>
-      <c r="H81" s="44">
+      <c r="H81" s="43">
         <v>45.422222222222203</v>
       </c>
       <c r="I81" s="44">
@@ -3984,23 +3983,23 @@
       <c r="D82" s="44">
         <v>83.9722222222223</v>
       </c>
-      <c r="E82" s="44">
+      <c r="E82" s="45">
         <v>79.408333333333402</v>
       </c>
-      <c r="F82" s="45">
-        <v>29.6988358877778</v>
-      </c>
-      <c r="G82" s="43">
-        <v>34.126467342324702</v>
-      </c>
-      <c r="H82" s="44">
-        <v>66.221874999999997</v>
+      <c r="F82" s="43">
+        <v>33.329786574801197</v>
+      </c>
+      <c r="G82" s="44">
+        <v>38.413249445153099</v>
+      </c>
+      <c r="H82" s="43">
+        <v>65.484375</v>
       </c>
       <c r="I82" s="44">
-        <v>86.793750000000003</v>
+        <v>86.096874999999997</v>
       </c>
       <c r="J82" s="45">
-        <v>38.387500000000003</v>
+        <v>37.771875000000001</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4016,16 +4015,16 @@
       <c r="D83" s="48">
         <v>39.216455696202601</v>
       </c>
-      <c r="E83" s="48">
+      <c r="E83" s="49">
         <v>39.875949367088602</v>
       </c>
-      <c r="F83" s="49">
+      <c r="F83" s="47">
         <v>15.6371905121488</v>
       </c>
-      <c r="G83" s="47">
+      <c r="G83" s="48">
         <v>17.7691434173266</v>
       </c>
-      <c r="H83" s="48">
+      <c r="H83" s="47">
         <v>46.554545454545497</v>
       </c>
       <c r="I83" s="48">
@@ -4043,28 +4042,28 @@
         <v>148</v>
       </c>
       <c r="C84" s="51">
-        <v>90.577777777777797</v>
+        <v>90.336842105263202</v>
       </c>
       <c r="D84" s="52">
-        <v>93.85</v>
-      </c>
-      <c r="E84" s="52">
-        <v>87.8055555555556</v>
-      </c>
-      <c r="F84" s="53">
-        <v>28.528544252236099</v>
-      </c>
-      <c r="G84" s="51">
-        <v>38.1333423935844</v>
-      </c>
-      <c r="H84" s="52">
-        <v>70.647058823529406</v>
+        <v>93.657894736842096</v>
+      </c>
+      <c r="E84" s="53">
+        <v>87.521052631578996</v>
+      </c>
+      <c r="F84" s="51">
+        <v>29.303677120618499</v>
+      </c>
+      <c r="G84" s="52">
+        <v>38.721709982465903</v>
+      </c>
+      <c r="H84" s="51">
+        <v>70.794444444444494</v>
       </c>
       <c r="I84" s="52">
-        <v>83.641176470588206</v>
+        <v>83.7</v>
       </c>
       <c r="J84" s="53">
-        <v>36.323529411764703</v>
+        <v>36.922222222222203</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
@@ -4080,16 +4079,16 @@
       <c r="D85" s="44">
         <v>89.75</v>
       </c>
-      <c r="E85" s="44">
+      <c r="E85" s="45">
         <v>80</v>
       </c>
-      <c r="F85" s="45">
+      <c r="F85" s="43">
         <v>25.206396102905298</v>
       </c>
-      <c r="G85" s="43">
+      <c r="G85" s="44">
         <v>31.083236694335898</v>
       </c>
-      <c r="H85" s="44">
+      <c r="H85" s="43">
         <v>42.25</v>
       </c>
       <c r="I85" s="44">
@@ -4107,28 +4106,28 @@
         <v>150</v>
       </c>
       <c r="C86" s="43">
-        <v>80.427777777777806</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="D86" s="44">
-        <v>82.627777777777794</v>
-      </c>
-      <c r="E86" s="44">
-        <v>78.3055555555556</v>
-      </c>
-      <c r="F86" s="45">
-        <v>35.803799394483498</v>
-      </c>
-      <c r="G86" s="43">
-        <v>40.070596666897103</v>
-      </c>
-      <c r="H86" s="44">
-        <v>63.594117647058802</v>
+        <v>82.182352941176504</v>
+      </c>
+      <c r="E86" s="45">
+        <v>78.064705882352996</v>
+      </c>
+      <c r="F86" s="43">
+        <v>35.744889961815403</v>
+      </c>
+      <c r="G86" s="44">
+        <v>39.982037222380001</v>
+      </c>
+      <c r="H86" s="43">
+        <v>62.987499999999997</v>
       </c>
       <c r="I86" s="44">
-        <v>87.176470588235304</v>
+        <v>87.331249999999997</v>
       </c>
       <c r="J86" s="45">
-        <v>41.429411764705897</v>
+        <v>41.075000000000003</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
@@ -4139,28 +4138,28 @@
         <v>151</v>
       </c>
       <c r="C87" s="43">
-        <v>76.1944444444445</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="D87" s="44">
-        <v>76.75</v>
-      </c>
-      <c r="E87" s="44">
-        <v>75.983333333333405</v>
-      </c>
-      <c r="F87" s="45">
+        <v>75.636842105263199</v>
+      </c>
+      <c r="E87" s="45">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="F87" s="43">
         <v>20.0676503632838</v>
       </c>
-      <c r="G87" s="43">
-        <v>23.6965106455743</v>
-      </c>
-      <c r="H87" s="44">
-        <v>50.734782608695703</v>
+      <c r="G87" s="44">
+        <v>23.742129487872901</v>
+      </c>
+      <c r="H87" s="43">
+        <v>51</v>
       </c>
       <c r="I87" s="44">
-        <v>87.021739130434796</v>
+        <v>87.1041666666667</v>
       </c>
       <c r="J87" s="45">
-        <v>22.469565217391299</v>
+        <v>23.070833333333301</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
@@ -4176,16 +4175,16 @@
       <c r="D88" s="44">
         <v>49.125</v>
       </c>
-      <c r="E88" s="44">
+      <c r="E88" s="45">
         <v>50.15</v>
       </c>
-      <c r="F88" s="45">
+      <c r="F88" s="43">
         <v>23.608823776245099</v>
       </c>
-      <c r="G88" s="43">
+      <c r="G88" s="44">
         <v>29.029923427871999</v>
       </c>
-      <c r="H88" s="44">
+      <c r="H88" s="43">
         <v>41.7</v>
       </c>
       <c r="I88" s="44">
@@ -4203,28 +4202,28 @@
         <v>153</v>
       </c>
       <c r="C89" s="43">
-        <v>50.838709677419402</v>
+        <v>50.5137931034483</v>
       </c>
       <c r="D89" s="44">
-        <v>48.916129032258098</v>
-      </c>
-      <c r="E89" s="44">
-        <v>51.532258064516199</v>
-      </c>
-      <c r="F89" s="45">
-        <v>19.8345762693457</v>
-      </c>
-      <c r="G89" s="43">
-        <v>23.272954732116698</v>
-      </c>
-      <c r="H89" s="44">
-        <v>48.065384615384602</v>
+        <v>48.6034482758621</v>
+      </c>
+      <c r="E89" s="45">
+        <v>51.151724137931097</v>
+      </c>
+      <c r="F89" s="43">
+        <v>19.738048482628599</v>
+      </c>
+      <c r="G89" s="44">
+        <v>23.034897362064299</v>
+      </c>
+      <c r="H89" s="43">
+        <v>48.25</v>
       </c>
       <c r="I89" s="44">
-        <v>93.142307692307696</v>
+        <v>93.2</v>
       </c>
       <c r="J89" s="45">
-        <v>25.123076923076901</v>
+        <v>24.308333333333302</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4235,28 +4234,28 @@
         <v>154</v>
       </c>
       <c r="C90" s="47">
-        <v>12.4514285714286</v>
+        <v>13.6527777777778</v>
       </c>
       <c r="D90" s="48">
-        <v>11.9571428571429</v>
-      </c>
-      <c r="E90" s="48">
-        <v>12.9142857142857</v>
-      </c>
-      <c r="F90" s="49">
-        <v>13.3433876510964</v>
-      </c>
-      <c r="G90" s="47">
-        <v>14.1438634887941</v>
-      </c>
-      <c r="H90" s="48">
-        <v>36.015384615384598</v>
+        <v>13.05</v>
+      </c>
+      <c r="E90" s="49">
+        <v>14.186111111111099</v>
+      </c>
+      <c r="F90" s="47">
+        <v>13.4699492428753</v>
+      </c>
+      <c r="G90" s="48">
+        <v>14.3949005214278</v>
+      </c>
+      <c r="H90" s="47">
+        <v>35.914285714285697</v>
       </c>
       <c r="I90" s="48">
-        <v>97.3</v>
+        <v>97.192307692307693</v>
       </c>
       <c r="J90" s="49">
-        <v>18.133333333333301</v>
+        <v>19.269230769230798</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
@@ -4272,16 +4271,16 @@
       <c r="D91" s="52">
         <v>92.196296296296296</v>
       </c>
-      <c r="E91" s="52">
+      <c r="E91" s="53">
         <v>86.044444444444494</v>
       </c>
-      <c r="F91" s="53">
+      <c r="F91" s="51">
         <v>32.758267081302201</v>
       </c>
-      <c r="G91" s="51">
+      <c r="G91" s="52">
         <v>41.347290593401702</v>
       </c>
-      <c r="H91" s="52">
+      <c r="H91" s="51">
         <v>69.120833333333394</v>
       </c>
       <c r="I91" s="52">
@@ -4304,16 +4303,16 @@
       <c r="D92" s="44">
         <v>88.95</v>
       </c>
-      <c r="E92" s="44">
+      <c r="E92" s="45">
         <v>83.1875</v>
       </c>
-      <c r="F92" s="45">
+      <c r="F92" s="43">
         <v>26.992787447335299</v>
       </c>
-      <c r="G92" s="43">
+      <c r="G92" s="44">
         <v>37.453316142679</v>
       </c>
-      <c r="H92" s="44">
+      <c r="H92" s="43">
         <v>45.25</v>
       </c>
       <c r="I92" s="44">
@@ -4336,16 +4335,16 @@
       <c r="D93" s="44">
         <v>69.25</v>
       </c>
-      <c r="E93" s="44">
+      <c r="E93" s="45">
         <v>68.724999999999994</v>
       </c>
-      <c r="F93" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" s="43">
+      <c r="F93" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" s="44">
         <v>25.1628441489786</v>
       </c>
-      <c r="H93" s="44" t="s">
+      <c r="H93" s="43" t="s">
         <v>13</v>
       </c>
       <c r="I93" s="44" t="s">
@@ -4368,16 +4367,16 @@
       <c r="D94" s="44">
         <v>56.008333333333297</v>
       </c>
-      <c r="E94" s="44">
+      <c r="E94" s="45">
         <v>60.883333333333297</v>
       </c>
-      <c r="F94" s="45">
-        <v>16.216443750919002</v>
-      </c>
-      <c r="G94" s="43">
-        <v>20.202235880710901</v>
-      </c>
-      <c r="H94" s="44">
+      <c r="F94" s="43">
+        <v>16.3041733550461</v>
+      </c>
+      <c r="G94" s="44">
+        <v>20.220619431848601</v>
+      </c>
+      <c r="H94" s="43">
         <v>60.9</v>
       </c>
       <c r="I94" s="44">
@@ -4400,16 +4399,16 @@
       <c r="D95" s="44">
         <v>88.221428571428604</v>
       </c>
-      <c r="E95" s="44">
+      <c r="E95" s="45">
         <v>83.664285714285697</v>
       </c>
-      <c r="F95" s="45">
+      <c r="F95" s="43">
         <v>32.211681868692899</v>
       </c>
-      <c r="G95" s="43">
+      <c r="G95" s="44">
         <v>38.541609168822397</v>
       </c>
-      <c r="H95" s="44">
+      <c r="H95" s="43">
         <v>70.375</v>
       </c>
       <c r="I95" s="44">
@@ -4432,16 +4431,16 @@
       <c r="D96" s="48">
         <v>64.7</v>
       </c>
-      <c r="E96" s="48">
+      <c r="E96" s="49">
         <v>62.38</v>
       </c>
-      <c r="F96" s="49">
+      <c r="F96" s="47">
         <v>38.473779332045503</v>
       </c>
-      <c r="G96" s="47">
+      <c r="G96" s="48">
         <v>39.630844102541801</v>
       </c>
-      <c r="H96" s="48">
+      <c r="H96" s="47">
         <v>39.479999999999997</v>
       </c>
       <c r="I96" s="48">
@@ -4459,28 +4458,28 @@
         <v>161</v>
       </c>
       <c r="C97" s="51">
-        <v>87.378571428571405</v>
+        <v>87.706896551724199</v>
       </c>
       <c r="D97" s="52">
-        <v>91.1142857142857</v>
-      </c>
-      <c r="E97" s="52">
-        <v>84.453571428571394</v>
-      </c>
-      <c r="F97" s="53">
+        <v>91.372413793103505</v>
+      </c>
+      <c r="E97" s="53">
+        <v>84.827586206896598</v>
+      </c>
+      <c r="F97" s="51">
         <v>38.453255746085503</v>
       </c>
-      <c r="G97" s="51">
-        <v>45.564661523500298</v>
-      </c>
-      <c r="H97" s="52">
-        <v>68.974074074074096</v>
+      <c r="G97" s="52">
+        <v>45.589718937744898</v>
+      </c>
+      <c r="H97" s="51">
+        <v>68.896428571428601</v>
       </c>
       <c r="I97" s="52">
-        <v>84.2222222222222</v>
+        <v>84.45</v>
       </c>
       <c r="J97" s="53">
-        <v>39.251851851851903</v>
+        <v>39.639285714285698</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4491,28 +4490,28 @@
         <v>162</v>
       </c>
       <c r="C98" s="47">
-        <v>81.072727272727306</v>
+        <v>81.033333333333402</v>
       </c>
       <c r="D98" s="48">
-        <v>81.527272727272702</v>
-      </c>
-      <c r="E98" s="48">
-        <v>80.581818181818207</v>
-      </c>
-      <c r="F98" s="49">
+        <v>81.7</v>
+      </c>
+      <c r="E98" s="49">
+        <v>80.4166666666667</v>
+      </c>
+      <c r="F98" s="47">
         <v>26.219753616372898</v>
       </c>
-      <c r="G98" s="47">
+      <c r="G98" s="48">
         <v>31.378246565947499</v>
       </c>
-      <c r="H98" s="48">
-        <v>54.530769230769202</v>
+      <c r="H98" s="47">
+        <v>54.6928571428571</v>
       </c>
       <c r="I98" s="48">
-        <v>83.738461538461607</v>
+        <v>84.685714285714297</v>
       </c>
       <c r="J98" s="49">
-        <v>25.776923076923101</v>
+        <v>24.4142857142857</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
@@ -4712,11 +4711,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{146A2AD2-5218-4365-9127-53F33D4B8446}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{0FE6B633-CA62-483E-8476-6CF55E081A71}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{D2159659-81B3-4B07-819F-A71EB979FC3C}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{DA5967D0-431E-484E-9737-9C3526F8AD69}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{691AD027-A02C-497B-9EB8-D0FBCF46BE50}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{BD5F3305-0973-4858-9775-3C8C69185742}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{62A81F3F-2048-4960-BDE1-2C82527367AD}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{72B92105-13AB-444A-8766-225A1039384A}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{EE6D9981-7AAD-4128-B0D4-869FD1D55976}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{CC7A06AC-1813-4AF0-B7FA-51BC91AE6F5A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab31.xlsx
+++ b/AfDD_2023_Annex_Table_Tab31.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5277826B-26C7-4B2F-B1AB-D1DE62EC5944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B5BD29F-7C5C-413A-AD56-B41B69C4104D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4DBC0FA7-CB17-41AA-B8B4-DA4C821DC9D9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{37514E84-CE78-455E-9F04-58A9A1747DBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab31" sheetId="1" r:id="rId1"/>
@@ -1380,7 +1380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6A1813-92A9-4762-AD34-8A91EDEF6EA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5124899-633A-4747-B67A-5F3CF3047CA6}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1482,13 +1482,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="15">
-        <v>71.599999999999994</v>
+        <v>75</v>
       </c>
       <c r="D4" s="16">
-        <v>68.599999999999994</v>
+        <v>73.2</v>
       </c>
       <c r="E4" s="17">
-        <v>74.5</v>
+        <v>76.7</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>13</v>
@@ -1674,13 +1674,13 @@
         <v>27</v>
       </c>
       <c r="C10" s="19">
-        <v>41.6</v>
+        <v>42.2</v>
       </c>
       <c r="D10" s="20">
-        <v>43.9</v>
+        <v>43.3</v>
       </c>
       <c r="E10" s="21">
-        <v>39.700000000000003</v>
+        <v>41.3</v>
       </c>
       <c r="F10" s="19">
         <v>23.608823776245099</v>
@@ -1770,13 +1770,13 @@
         <v>33</v>
       </c>
       <c r="C13" s="24">
-        <v>75.62</v>
+        <v>77.955555555555605</v>
       </c>
       <c r="D13" s="25">
-        <v>78.16</v>
+        <v>80.816666666666706</v>
       </c>
       <c r="E13" s="26">
-        <v>73.14</v>
+        <v>75.133333333333397</v>
       </c>
       <c r="F13" s="24">
         <v>28.944616723593899</v>
@@ -2573,7 +2573,7 @@
         <v>79.31</v>
       </c>
       <c r="D38" s="25">
-        <v>82.29</v>
+        <v>82.290000000000106</v>
       </c>
       <c r="E38" s="26">
         <v>77.540000000000006</v>
@@ -3338,13 +3338,13 @@
         <v>126</v>
       </c>
       <c r="C62" s="34">
-        <v>81.93</v>
+        <v>82.630769230769303</v>
       </c>
       <c r="D62" s="35">
-        <v>84.3275000000001</v>
+        <v>85.098717948717905</v>
       </c>
       <c r="E62" s="36">
-        <v>79.765000000000001</v>
+        <v>80.394871794871804</v>
       </c>
       <c r="F62" s="34">
         <v>33.095499071903099</v>
@@ -3370,13 +3370,13 @@
         <v>127</v>
       </c>
       <c r="C63" s="38">
-        <v>41.4413793103448</v>
+        <v>40.226751592356699</v>
       </c>
       <c r="D63" s="39">
-        <v>40.804597701149397</v>
+        <v>39.480254777070101</v>
       </c>
       <c r="E63" s="40">
-        <v>41.820689655172401</v>
+        <v>40.6732484076433</v>
       </c>
       <c r="F63" s="38">
         <v>16.661437465065301</v>
@@ -3402,13 +3402,13 @@
         <v>128</v>
       </c>
       <c r="C64" s="34">
-        <v>56.890909090909098</v>
+        <v>57.809375000000003</v>
       </c>
       <c r="D64" s="35">
-        <v>55.186363636363602</v>
+        <v>55.381250000000001</v>
       </c>
       <c r="E64" s="36">
-        <v>58.145454545454598</v>
+        <v>59.578125</v>
       </c>
       <c r="F64" s="34">
         <v>29.845690604842499</v>
@@ -3434,13 +3434,13 @@
         <v>129</v>
       </c>
       <c r="C65" s="43">
-        <v>73.224999999999994</v>
+        <v>73.073684210526295</v>
       </c>
       <c r="D65" s="44">
-        <v>72.73</v>
+        <v>72.592105263157904</v>
       </c>
       <c r="E65" s="45">
-        <v>73.034999999999997</v>
+        <v>72.842105263157904</v>
       </c>
       <c r="F65" s="43">
         <v>14.6222145469468</v>
@@ -3452,7 +3452,7 @@
         <v>41.759090909090901</v>
       </c>
       <c r="I65" s="44">
-        <v>85.936363636363595</v>
+        <v>85.936363636363694</v>
       </c>
       <c r="J65" s="45">
         <v>18.2136363636364</v>
@@ -3466,13 +3466,13 @@
         <v>130</v>
       </c>
       <c r="C66" s="47">
-        <v>54.193700787401603</v>
+        <v>54.301276595744703</v>
       </c>
       <c r="D66" s="48">
-        <v>54.512598425196899</v>
+        <v>54.621702127659603</v>
       </c>
       <c r="E66" s="49">
-        <v>53.771653543307103</v>
+        <v>53.857446808510701</v>
       </c>
       <c r="F66" s="47">
         <v>17.444689734354601</v>
@@ -3481,7 +3481,7 @@
         <v>19.7889421733211</v>
       </c>
       <c r="H66" s="47">
-        <v>53.465656565656602</v>
+        <v>53.465656565656502</v>
       </c>
       <c r="I66" s="48">
         <v>89.176530612244903</v>
@@ -3501,7 +3501,7 @@
         <v>79.029411764705898</v>
       </c>
       <c r="D67" s="52">
-        <v>80.694117647058903</v>
+        <v>80.694117647058803</v>
       </c>
       <c r="E67" s="53">
         <v>77.335294117647095</v>
@@ -3516,7 +3516,7 @@
         <v>62.985714285714302</v>
       </c>
       <c r="I67" s="52">
-        <v>88.728571428571499</v>
+        <v>88.728571428571399</v>
       </c>
       <c r="J67" s="53">
         <v>30.342857142857198</v>
@@ -3533,7 +3533,7 @@
         <v>84.044444444444494</v>
       </c>
       <c r="D68" s="44">
-        <v>86.8333333333334</v>
+        <v>86.8333333333333</v>
       </c>
       <c r="E68" s="45">
         <v>81.711111111111094</v>
@@ -3577,7 +3577,7 @@
         <v>39.649865177277597</v>
       </c>
       <c r="H69" s="43">
-        <v>72.683333333333394</v>
+        <v>72.683333333333294</v>
       </c>
       <c r="I69" s="44">
         <v>77.3</v>
@@ -3690,13 +3690,13 @@
         <v>137</v>
       </c>
       <c r="C73" s="43">
-        <v>77.273333333333397</v>
+        <v>78.892857142857196</v>
       </c>
       <c r="D73" s="44">
-        <v>79.186666666666696</v>
+        <v>80.967857142857198</v>
       </c>
       <c r="E73" s="45">
-        <v>75.366666666666703</v>
+        <v>76.807142857142907</v>
       </c>
       <c r="F73" s="43">
         <v>31.390574520253601</v>
@@ -3786,13 +3786,13 @@
         <v>140</v>
       </c>
       <c r="C76" s="51">
-        <v>72.242857142857204</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="D76" s="52">
-        <v>73.185714285714297</v>
+        <v>72.825000000000003</v>
       </c>
       <c r="E76" s="53">
-        <v>71.585714285714303</v>
+        <v>70.733333333333405</v>
       </c>
       <c r="F76" s="51">
         <v>23.185484504003199</v>
@@ -3818,13 +3818,13 @@
         <v>141</v>
       </c>
       <c r="C77" s="43">
-        <v>54.227272727272798</v>
+        <v>55.193333333333399</v>
       </c>
       <c r="D77" s="44">
-        <v>53.209090909090897</v>
+        <v>53.62</v>
       </c>
       <c r="E77" s="45">
-        <v>54.8272727272727</v>
+        <v>56.1933333333333</v>
       </c>
       <c r="F77" s="43">
         <v>30.713976506919401</v>
@@ -3850,10 +3850,10 @@
         <v>142</v>
       </c>
       <c r="C78" s="43">
-        <v>8.0346153846153907</v>
+        <v>8.0346153846153801</v>
       </c>
       <c r="D78" s="44">
-        <v>7.2923076923077002</v>
+        <v>7.2923076923076904</v>
       </c>
       <c r="E78" s="45">
         <v>8.6807692307692292</v>
@@ -3882,13 +3882,13 @@
         <v>143</v>
       </c>
       <c r="C79" s="47">
-        <v>14.715151515151501</v>
+        <v>12.5129032258065</v>
       </c>
       <c r="D79" s="48">
-        <v>14.530303030302999</v>
+        <v>12.3032258064516</v>
       </c>
       <c r="E79" s="49">
-        <v>15.012121212121199</v>
+        <v>12.8403225806452</v>
       </c>
       <c r="F79" s="47">
         <v>14.400089551889801</v>
@@ -3932,7 +3932,7 @@
         <v>76.099999999999994</v>
       </c>
       <c r="I80" s="52">
-        <v>77.433333333333394</v>
+        <v>77.433333333333294</v>
       </c>
       <c r="J80" s="53">
         <v>40.766666666666701</v>
@@ -3946,13 +3946,13 @@
         <v>145</v>
       </c>
       <c r="C81" s="43">
-        <v>59.774999999999999</v>
+        <v>59.1933333333333</v>
       </c>
       <c r="D81" s="44">
-        <v>56.487499999999997</v>
+        <v>55.626666666666701</v>
       </c>
       <c r="E81" s="45">
-        <v>61.024999999999999</v>
+        <v>60.566666666666698</v>
       </c>
       <c r="F81" s="43">
         <v>28.327572765561602</v>
@@ -3964,7 +3964,7 @@
         <v>45.422222222222203</v>
       </c>
       <c r="I81" s="44">
-        <v>90.533333333333402</v>
+        <v>90.533333333333303</v>
       </c>
       <c r="J81" s="45">
         <v>20.188888888888901</v>
@@ -3978,13 +3978,13 @@
         <v>146</v>
       </c>
       <c r="C82" s="43">
-        <v>81.577777777777797</v>
+        <v>82.348571428571503</v>
       </c>
       <c r="D82" s="44">
-        <v>83.9722222222223</v>
+        <v>84.821428571428598</v>
       </c>
       <c r="E82" s="45">
-        <v>79.408333333333402</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="F82" s="43">
         <v>33.329786574801197</v>
@@ -4010,13 +4010,13 @@
         <v>147</v>
       </c>
       <c r="C83" s="47">
-        <v>39.584810126582298</v>
+        <v>38.2232394366197</v>
       </c>
       <c r="D83" s="48">
-        <v>39.216455696202601</v>
+        <v>37.774647887324001</v>
       </c>
       <c r="E83" s="49">
-        <v>39.875949367088602</v>
+        <v>38.571830985915497</v>
       </c>
       <c r="F83" s="47">
         <v>15.6371905121488</v>
@@ -4045,7 +4045,7 @@
         <v>90.336842105263202</v>
       </c>
       <c r="D84" s="52">
-        <v>93.657894736842096</v>
+        <v>93.657894736842195</v>
       </c>
       <c r="E84" s="53">
         <v>87.521052631578996</v>
@@ -4138,13 +4138,13 @@
         <v>151</v>
       </c>
       <c r="C87" s="43">
-        <v>75.099999999999994</v>
+        <v>75.174285714285702</v>
       </c>
       <c r="D87" s="44">
-        <v>75.636842105263199</v>
+        <v>75.7628571428572</v>
       </c>
       <c r="E87" s="45">
-        <v>74.900000000000006</v>
+        <v>74.948571428571398</v>
       </c>
       <c r="F87" s="43">
         <v>20.0676503632838</v>
@@ -4170,13 +4170,13 @@
         <v>152</v>
       </c>
       <c r="C88" s="43">
-        <v>49.774999999999999</v>
+        <v>48.1666666666667</v>
       </c>
       <c r="D88" s="44">
-        <v>49.125</v>
+        <v>47.4166666666667</v>
       </c>
       <c r="E88" s="45">
-        <v>50.15</v>
+        <v>48.466666666666697</v>
       </c>
       <c r="F88" s="43">
         <v>23.608823776245099</v>
@@ -4202,13 +4202,13 @@
         <v>153</v>
       </c>
       <c r="C89" s="43">
-        <v>50.5137931034483</v>
+        <v>50.1413043478261</v>
       </c>
       <c r="D89" s="44">
-        <v>48.6034482758621</v>
+        <v>47.5717391304348</v>
       </c>
       <c r="E89" s="45">
-        <v>51.151724137931097</v>
+        <v>51.05</v>
       </c>
       <c r="F89" s="43">
         <v>19.738048482628599</v>
@@ -4220,7 +4220,7 @@
         <v>48.25</v>
       </c>
       <c r="I89" s="44">
-        <v>93.2</v>
+        <v>93.200000000000102</v>
       </c>
       <c r="J89" s="45">
         <v>24.308333333333302</v>
@@ -4234,13 +4234,13 @@
         <v>154</v>
       </c>
       <c r="C90" s="47">
-        <v>13.6527777777778</v>
+        <v>13.34</v>
       </c>
       <c r="D90" s="48">
-        <v>13.05</v>
+        <v>12.7314285714286</v>
       </c>
       <c r="E90" s="49">
-        <v>14.186111111111099</v>
+        <v>13.8828571428571</v>
       </c>
       <c r="F90" s="47">
         <v>13.4699492428753</v>
@@ -4269,10 +4269,10 @@
         <v>88.718518518518493</v>
       </c>
       <c r="D91" s="52">
-        <v>92.196296296296296</v>
+        <v>92.196296296296396</v>
       </c>
       <c r="E91" s="53">
-        <v>86.044444444444494</v>
+        <v>86.044444444444395</v>
       </c>
       <c r="F91" s="51">
         <v>32.758267081302201</v>
@@ -4281,7 +4281,7 @@
         <v>41.347290593401702</v>
       </c>
       <c r="H91" s="51">
-        <v>69.120833333333394</v>
+        <v>69.120833333333294</v>
       </c>
       <c r="I91" s="52">
         <v>84.8125</v>
@@ -4362,13 +4362,13 @@
         <v>158</v>
       </c>
       <c r="C94" s="43">
-        <v>58.8333333333334</v>
+        <v>59.9304347826087</v>
       </c>
       <c r="D94" s="44">
-        <v>56.008333333333297</v>
+        <v>57.056521739130403</v>
       </c>
       <c r="E94" s="45">
-        <v>60.883333333333297</v>
+        <v>61.9652173913044</v>
       </c>
       <c r="F94" s="43">
         <v>16.3041733550461</v>
@@ -4394,13 +4394,13 @@
         <v>159</v>
       </c>
       <c r="C95" s="43">
-        <v>85.628571428571405</v>
+        <v>86.274074074074093</v>
       </c>
       <c r="D95" s="44">
-        <v>88.221428571428604</v>
+        <v>89.118518518518499</v>
       </c>
       <c r="E95" s="45">
-        <v>83.664285714285697</v>
+        <v>84.085185185185196</v>
       </c>
       <c r="F95" s="43">
         <v>32.211681868692899</v>
@@ -4412,7 +4412,7 @@
         <v>70.375</v>
       </c>
       <c r="I95" s="44">
-        <v>85.183333333333394</v>
+        <v>85.183333333333294</v>
       </c>
       <c r="J95" s="45">
         <v>40.375</v>
@@ -4426,13 +4426,13 @@
         <v>160</v>
       </c>
       <c r="C96" s="47">
-        <v>63.13</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="D96" s="48">
-        <v>64.7</v>
+        <v>67.929411764705904</v>
       </c>
       <c r="E96" s="49">
-        <v>62.38</v>
+        <v>65.276470588235298</v>
       </c>
       <c r="F96" s="47">
         <v>38.473779332045503</v>
@@ -4461,7 +4461,7 @@
         <v>87.706896551724199</v>
       </c>
       <c r="D97" s="52">
-        <v>91.372413793103505</v>
+        <v>91.372413793103405</v>
       </c>
       <c r="E97" s="53">
         <v>84.827586206896598</v>
@@ -4490,13 +4490,13 @@
         <v>162</v>
       </c>
       <c r="C98" s="47">
-        <v>81.033333333333402</v>
+        <v>80.895652173913007</v>
       </c>
       <c r="D98" s="48">
-        <v>81.7</v>
+        <v>81.547826086956505</v>
       </c>
       <c r="E98" s="49">
-        <v>80.4166666666667</v>
+        <v>80.273913043478302</v>
       </c>
       <c r="F98" s="47">
         <v>26.219753616372898</v>
@@ -4711,11 +4711,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{BD5F3305-0973-4858-9775-3C8C69185742}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{62A81F3F-2048-4960-BDE1-2C82527367AD}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{72B92105-13AB-444A-8766-225A1039384A}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{EE6D9981-7AAD-4128-B0D4-869FD1D55976}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{CC7A06AC-1813-4AF0-B7FA-51BC91AE6F5A}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{75D0ADA4-06F4-4CCA-84CA-04CA2091792C}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{EC7C0859-0D3C-4496-A022-F82886CF7CCF}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{EEDB8571-EDFF-4E0E-A1B1-92C0AA9C1371}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{3A34BA24-C8FF-45B0-8421-46CF21BFF5AB}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{4E722DFC-5E1A-42A0-801F-D29B6B2D6A48}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab31.xlsx
+++ b/AfDD_2023_Annex_Table_Tab31.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B5BD29F-7C5C-413A-AD56-B41B69C4104D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EFB3545-2439-4CCF-B18E-FF244D2F27F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{37514E84-CE78-455E-9F04-58A9A1747DBC}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{5C1E18F6-79B7-4BF9-85A5-9275D3AE00E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab31" sheetId="1" r:id="rId1"/>
@@ -537,7 +537,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: International Labour Organization - ILOSTAT (retrieved 14/05/2023), The Informality Database (Elgin, C., M. A. Kose, F. Ohnsorge, and S. Yu. 2021. “Understanding Informality.” CERP Discussion Paper 16497, Centre for Economic Policy Research, London).</t>
@@ -1380,7 +1380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5124899-633A-4747-B67A-5F3CF3047CA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D6FC5A-3C10-4C0A-A338-A46A66777BFA}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1770,13 +1770,13 @@
         <v>33</v>
       </c>
       <c r="C13" s="24">
-        <v>77.955555555555605</v>
+        <v>76.02</v>
       </c>
       <c r="D13" s="25">
-        <v>80.816666666666706</v>
+        <v>78.56</v>
       </c>
       <c r="E13" s="26">
-        <v>75.133333333333397</v>
+        <v>73.52</v>
       </c>
       <c r="F13" s="24">
         <v>28.944616723593899</v>
@@ -2573,7 +2573,7 @@
         <v>79.31</v>
       </c>
       <c r="D38" s="25">
-        <v>82.290000000000106</v>
+        <v>82.29</v>
       </c>
       <c r="E38" s="26">
         <v>77.540000000000006</v>
@@ -3338,13 +3338,13 @@
         <v>126</v>
       </c>
       <c r="C62" s="34">
-        <v>82.630769230769303</v>
+        <v>82.03</v>
       </c>
       <c r="D62" s="35">
-        <v>85.098717948717905</v>
+        <v>84.427500000000094</v>
       </c>
       <c r="E62" s="36">
-        <v>80.394871794871804</v>
+        <v>79.86</v>
       </c>
       <c r="F62" s="34">
         <v>33.095499071903099</v>
@@ -3370,13 +3370,13 @@
         <v>127</v>
       </c>
       <c r="C63" s="38">
-        <v>40.226751592356699</v>
+        <v>41.306896551724101</v>
       </c>
       <c r="D63" s="39">
-        <v>39.480254777070101</v>
+        <v>40.655172413793103</v>
       </c>
       <c r="E63" s="40">
-        <v>40.6732484076433</v>
+        <v>41.704597701149403</v>
       </c>
       <c r="F63" s="38">
         <v>16.661437465065301</v>
@@ -3402,13 +3402,13 @@
         <v>128</v>
       </c>
       <c r="C64" s="34">
-        <v>57.809375000000003</v>
+        <v>56.522727272727302</v>
       </c>
       <c r="D64" s="35">
-        <v>55.381250000000001</v>
+        <v>54.781818181818203</v>
       </c>
       <c r="E64" s="36">
-        <v>59.578125</v>
+        <v>57.818181818181799</v>
       </c>
       <c r="F64" s="34">
         <v>29.845690604842499</v>
@@ -3434,13 +3434,13 @@
         <v>129</v>
       </c>
       <c r="C65" s="43">
-        <v>73.073684210526295</v>
+        <v>73.14</v>
       </c>
       <c r="D65" s="44">
-        <v>72.592105263157904</v>
+        <v>72.665000000000006</v>
       </c>
       <c r="E65" s="45">
-        <v>72.842105263157904</v>
+        <v>72.95</v>
       </c>
       <c r="F65" s="43">
         <v>14.6222145469468</v>
@@ -3452,7 +3452,7 @@
         <v>41.759090909090901</v>
       </c>
       <c r="I65" s="44">
-        <v>85.936363636363694</v>
+        <v>85.936363636363595</v>
       </c>
       <c r="J65" s="45">
         <v>18.2136363636364</v>
@@ -3466,13 +3466,13 @@
         <v>130</v>
       </c>
       <c r="C66" s="47">
-        <v>54.301276595744703</v>
+        <v>54.1330708661418</v>
       </c>
       <c r="D66" s="48">
-        <v>54.621702127659603</v>
+        <v>54.441732283464603</v>
       </c>
       <c r="E66" s="49">
-        <v>53.857446808510701</v>
+        <v>53.722047244094497</v>
       </c>
       <c r="F66" s="47">
         <v>17.444689734354601</v>
@@ -3481,7 +3481,7 @@
         <v>19.7889421733211</v>
       </c>
       <c r="H66" s="47">
-        <v>53.465656565656502</v>
+        <v>53.465656565656602</v>
       </c>
       <c r="I66" s="48">
         <v>89.176530612244903</v>
@@ -3501,7 +3501,7 @@
         <v>79.029411764705898</v>
       </c>
       <c r="D67" s="52">
-        <v>80.694117647058803</v>
+        <v>80.694117647058903</v>
       </c>
       <c r="E67" s="53">
         <v>77.335294117647095</v>
@@ -3519,7 +3519,7 @@
         <v>88.728571428571399</v>
       </c>
       <c r="J67" s="53">
-        <v>30.342857142857198</v>
+        <v>30.342857142857099</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
@@ -3690,13 +3690,13 @@
         <v>137</v>
       </c>
       <c r="C73" s="43">
-        <v>78.892857142857196</v>
+        <v>77.540000000000006</v>
       </c>
       <c r="D73" s="44">
-        <v>80.967857142857198</v>
+        <v>79.453333333333404</v>
       </c>
       <c r="E73" s="45">
-        <v>76.807142857142907</v>
+        <v>75.62</v>
       </c>
       <c r="F73" s="43">
         <v>31.390574520253601</v>
@@ -3786,13 +3786,13 @@
         <v>140</v>
       </c>
       <c r="C76" s="51">
-        <v>71.599999999999994</v>
+        <v>72</v>
       </c>
       <c r="D76" s="52">
-        <v>72.825000000000003</v>
+        <v>73</v>
       </c>
       <c r="E76" s="53">
-        <v>70.733333333333405</v>
+        <v>71.342857142857198</v>
       </c>
       <c r="F76" s="51">
         <v>23.185484504003199</v>
@@ -3818,13 +3818,13 @@
         <v>141</v>
       </c>
       <c r="C77" s="43">
-        <v>55.193333333333399</v>
+        <v>54.127272727272697</v>
       </c>
       <c r="D77" s="44">
-        <v>53.62</v>
+        <v>53.154545454545499</v>
       </c>
       <c r="E77" s="45">
-        <v>56.1933333333333</v>
+        <v>54.727272727272698</v>
       </c>
       <c r="F77" s="43">
         <v>30.713976506919401</v>
@@ -3850,10 +3850,10 @@
         <v>142</v>
       </c>
       <c r="C78" s="43">
-        <v>8.0346153846153801</v>
+        <v>8.0346153846153907</v>
       </c>
       <c r="D78" s="44">
-        <v>7.2923076923076904</v>
+        <v>7.2923076923077002</v>
       </c>
       <c r="E78" s="45">
         <v>8.6807692307692292</v>
@@ -3882,13 +3882,13 @@
         <v>143</v>
       </c>
       <c r="C79" s="47">
-        <v>12.5129032258065</v>
+        <v>14.506060606060601</v>
       </c>
       <c r="D79" s="48">
-        <v>12.3032258064516</v>
+        <v>14.3121212121212</v>
       </c>
       <c r="E79" s="49">
-        <v>12.8403225806452</v>
+        <v>14.8121212121212</v>
       </c>
       <c r="F79" s="47">
         <v>14.400089551889801</v>
@@ -3932,7 +3932,7 @@
         <v>76.099999999999994</v>
       </c>
       <c r="I80" s="52">
-        <v>77.433333333333294</v>
+        <v>77.433333333333394</v>
       </c>
       <c r="J80" s="53">
         <v>40.766666666666701</v>
@@ -3946,13 +3946,13 @@
         <v>145</v>
       </c>
       <c r="C81" s="43">
-        <v>59.1933333333333</v>
+        <v>59.787500000000001</v>
       </c>
       <c r="D81" s="44">
-        <v>55.626666666666701</v>
+        <v>56.612499999999997</v>
       </c>
       <c r="E81" s="45">
-        <v>60.566666666666698</v>
+        <v>60.95</v>
       </c>
       <c r="F81" s="43">
         <v>28.327572765561602</v>
@@ -3964,7 +3964,7 @@
         <v>45.422222222222203</v>
       </c>
       <c r="I81" s="44">
-        <v>90.533333333333303</v>
+        <v>90.533333333333402</v>
       </c>
       <c r="J81" s="45">
         <v>20.188888888888901</v>
@@ -3978,13 +3978,13 @@
         <v>146</v>
       </c>
       <c r="C82" s="43">
-        <v>82.348571428571503</v>
+        <v>81.688888888888897</v>
       </c>
       <c r="D82" s="44">
-        <v>84.821428571428598</v>
+        <v>84.0833333333334</v>
       </c>
       <c r="E82" s="45">
-        <v>80.099999999999994</v>
+        <v>79.5138888888889</v>
       </c>
       <c r="F82" s="43">
         <v>33.329786574801197</v>
@@ -4010,13 +4010,13 @@
         <v>147</v>
       </c>
       <c r="C83" s="47">
-        <v>38.2232394366197</v>
+        <v>39.4354430379747</v>
       </c>
       <c r="D83" s="48">
-        <v>37.774647887324001</v>
+        <v>39.039240506329101</v>
       </c>
       <c r="E83" s="49">
-        <v>38.571830985915497</v>
+        <v>39.755696202531702</v>
       </c>
       <c r="F83" s="47">
         <v>15.6371905121488</v>
@@ -4045,7 +4045,7 @@
         <v>90.336842105263202</v>
       </c>
       <c r="D84" s="52">
-        <v>93.657894736842195</v>
+        <v>93.657894736842096</v>
       </c>
       <c r="E84" s="53">
         <v>87.521052631578996</v>
@@ -4138,13 +4138,13 @@
         <v>151</v>
       </c>
       <c r="C87" s="43">
-        <v>75.174285714285702</v>
+        <v>74.931578947368394</v>
       </c>
       <c r="D87" s="44">
-        <v>75.7628571428572</v>
+        <v>75.515789473684194</v>
       </c>
       <c r="E87" s="45">
-        <v>74.948571428571398</v>
+        <v>74.710526315789494</v>
       </c>
       <c r="F87" s="43">
         <v>20.0676503632838</v>
@@ -4170,13 +4170,13 @@
         <v>152</v>
       </c>
       <c r="C88" s="43">
-        <v>48.1666666666667</v>
+        <v>50.774999999999999</v>
       </c>
       <c r="D88" s="44">
-        <v>47.4166666666667</v>
+        <v>50.125</v>
       </c>
       <c r="E88" s="45">
-        <v>48.466666666666697</v>
+        <v>51.1</v>
       </c>
       <c r="F88" s="43">
         <v>23.608823776245099</v>
@@ -4202,13 +4202,13 @@
         <v>153</v>
       </c>
       <c r="C89" s="43">
-        <v>50.1413043478261</v>
+        <v>50.010344827586202</v>
       </c>
       <c r="D89" s="44">
-        <v>47.5717391304348</v>
+        <v>48.041379310344901</v>
       </c>
       <c r="E89" s="45">
-        <v>51.05</v>
+        <v>50.696551724137898</v>
       </c>
       <c r="F89" s="43">
         <v>19.738048482628599</v>
@@ -4220,7 +4220,7 @@
         <v>48.25</v>
       </c>
       <c r="I89" s="44">
-        <v>93.200000000000102</v>
+        <v>93.2</v>
       </c>
       <c r="J89" s="45">
         <v>24.308333333333302</v>
@@ -4234,13 +4234,13 @@
         <v>154</v>
       </c>
       <c r="C90" s="47">
-        <v>13.34</v>
+        <v>13.8222222222222</v>
       </c>
       <c r="D90" s="48">
-        <v>12.7314285714286</v>
+        <v>13.2055555555556</v>
       </c>
       <c r="E90" s="49">
-        <v>13.8828571428571</v>
+        <v>14.3722222222222</v>
       </c>
       <c r="F90" s="47">
         <v>13.4699492428753</v>
@@ -4269,10 +4269,10 @@
         <v>88.718518518518493</v>
       </c>
       <c r="D91" s="52">
-        <v>92.196296296296396</v>
+        <v>92.196296296296296</v>
       </c>
       <c r="E91" s="53">
-        <v>86.044444444444395</v>
+        <v>86.044444444444494</v>
       </c>
       <c r="F91" s="51">
         <v>32.758267081302201</v>
@@ -4281,7 +4281,7 @@
         <v>41.347290593401702</v>
       </c>
       <c r="H91" s="51">
-        <v>69.120833333333294</v>
+        <v>69.120833333333394</v>
       </c>
       <c r="I91" s="52">
         <v>84.8125</v>
@@ -4362,13 +4362,13 @@
         <v>158</v>
       </c>
       <c r="C94" s="43">
-        <v>59.9304347826087</v>
+        <v>58.733333333333398</v>
       </c>
       <c r="D94" s="44">
-        <v>57.056521739130403</v>
+        <v>55.608333333333398</v>
       </c>
       <c r="E94" s="45">
-        <v>61.9652173913044</v>
+        <v>60.983333333333398</v>
       </c>
       <c r="F94" s="43">
         <v>16.3041733550461</v>
@@ -4394,13 +4394,13 @@
         <v>159</v>
       </c>
       <c r="C95" s="43">
-        <v>86.274074074074093</v>
+        <v>85.871428571428595</v>
       </c>
       <c r="D95" s="44">
-        <v>89.118518518518499</v>
+        <v>88.55</v>
       </c>
       <c r="E95" s="45">
-        <v>84.085185185185196</v>
+        <v>83.821428571428598</v>
       </c>
       <c r="F95" s="43">
         <v>32.211681868692899</v>
@@ -4412,7 +4412,7 @@
         <v>70.375</v>
       </c>
       <c r="I95" s="44">
-        <v>85.183333333333294</v>
+        <v>85.183333333333394</v>
       </c>
       <c r="J95" s="45">
         <v>40.375</v>
@@ -4426,13 +4426,13 @@
         <v>160</v>
       </c>
       <c r="C96" s="47">
-        <v>66.099999999999994</v>
+        <v>62.88</v>
       </c>
       <c r="D96" s="48">
-        <v>67.929411764705904</v>
+        <v>64.45</v>
       </c>
       <c r="E96" s="49">
-        <v>65.276470588235298</v>
+        <v>62.16</v>
       </c>
       <c r="F96" s="47">
         <v>38.473779332045503</v>
@@ -4458,28 +4458,28 @@
         <v>161</v>
       </c>
       <c r="C97" s="51">
-        <v>87.706896551724199</v>
+        <v>86.76</v>
       </c>
       <c r="D97" s="52">
-        <v>91.372413793103405</v>
+        <v>90.736000000000004</v>
       </c>
       <c r="E97" s="53">
-        <v>84.827586206896598</v>
+        <v>83.623999999999995</v>
       </c>
       <c r="F97" s="51">
-        <v>38.453255746085503</v>
+        <v>39.778735413552802</v>
       </c>
       <c r="G97" s="52">
-        <v>45.589718937744898</v>
+        <v>45.848600024465</v>
       </c>
       <c r="H97" s="51">
-        <v>68.896428571428601</v>
+        <v>67.7869565217391</v>
       </c>
       <c r="I97" s="52">
-        <v>84.45</v>
+        <v>85.434782608695699</v>
       </c>
       <c r="J97" s="53">
-        <v>39.639285714285698</v>
+        <v>41.686956521739098</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4490,28 +4490,28 @@
         <v>162</v>
       </c>
       <c r="C98" s="47">
-        <v>80.895652173913007</v>
+        <v>82.144444444444503</v>
       </c>
       <c r="D98" s="48">
-        <v>81.547826086956505</v>
+        <v>83.8</v>
       </c>
       <c r="E98" s="49">
-        <v>80.273913043478302</v>
+        <v>81.366666666666703</v>
       </c>
       <c r="F98" s="47">
-        <v>26.219753616372898</v>
+        <v>26.2350355615396</v>
       </c>
       <c r="G98" s="48">
-        <v>31.378246565947499</v>
+        <v>31.150408057291202</v>
       </c>
       <c r="H98" s="47">
-        <v>54.6928571428571</v>
+        <v>56.766666666666701</v>
       </c>
       <c r="I98" s="48">
-        <v>84.685714285714297</v>
+        <v>85.375</v>
       </c>
       <c r="J98" s="49">
-        <v>24.4142857142857</v>
+        <v>23.725000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
@@ -4711,11 +4711,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{75D0ADA4-06F4-4CCA-84CA-04CA2091792C}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{EC7C0859-0D3C-4496-A022-F82886CF7CCF}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{EEDB8571-EDFF-4E0E-A1B1-92C0AA9C1371}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{3A34BA24-C8FF-45B0-8421-46CF21BFF5AB}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{4E722DFC-5E1A-42A0-801F-D29B6B2D6A48}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{0F3B23BA-D382-4B71-9F78-A9F128C7825E}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{7E9D363D-2B06-439B-B995-5D4ED02AEC05}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{5D30187C-2CDC-4BD3-88E8-980C96064B29}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{0612DD2B-9CBD-45BF-9321-FC95EA6014EA}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{D9512F27-0E00-41F6-B36A-4BEC0CABBAF1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab31.xlsx
+++ b/AfDD_2023_Annex_Table_Tab31.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EFB3545-2439-4CCF-B18E-FF244D2F27F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8047B342-CADD-48D5-812B-6BE0157CBA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{5C1E18F6-79B7-4BF9-85A5-9275D3AE00E2}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{D29E71D5-F223-4730-9919-549D136F5C05}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab31" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="174">
   <si>
     <t>Table 31: Informal economies and informal employment</t>
   </si>
@@ -546,16 +546,19 @@
     <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
   </si>
   <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators.</t>
-  </si>
-  <si>
     <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
   </si>
   <si>
     <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
+  </si>
+  <si>
+    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
+  </si>
+  <si>
+    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
+  </si>
+  <si>
+    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
   </si>
 </sst>
 </file>
@@ -1380,7 +1383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D6FC5A-3C10-4C0A-A338-A46A66777BFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409F9A4D-683D-4A72-A6EF-87D7DEA76CDB}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4637,7 +4640,7 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C109" s="57"/>
       <c r="D109" s="57"/>
@@ -4650,7 +4653,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C110" s="57"/>
       <c r="D110" s="57"/>
@@ -4662,7 +4665,9 @@
       <c r="J110" s="57"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="C111" s="57"/>
       <c r="D111" s="57"/>
       <c r="E111" s="57"/>
@@ -4674,7 +4679,7 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C112" s="57"/>
       <c r="D112" s="57"/>
@@ -4687,7 +4692,7 @@
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C113" s="57"/>
       <c r="D113" s="57"/>
@@ -4711,13 +4716,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{0F3B23BA-D382-4B71-9F78-A9F128C7825E}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{7E9D363D-2B06-439B-B995-5D4ED02AEC05}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{5D30187C-2CDC-4BD3-88E8-980C96064B29}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{0612DD2B-9CBD-45BF-9321-FC95EA6014EA}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{D9512F27-0E00-41F6-B36A-4BEC0CABBAF1}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{BAE868B0-EB72-4EAC-8D48-97C9E7F03998}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{7421DA4E-601F-40A1-A2B7-691FE5BF1736}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{8468E8C1-53FC-4D71-88CE-CEA915927658}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{84C26AAF-9D3F-43C7-A56D-4488C2B8DC33}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{193AA041-1181-4B36-BC95-56808362109A}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{71BD46B5-8E31-4EEE-BE31-3896885CAC80}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/AfDD_2023_Annex_Table_Tab31.xlsx
+++ b/AfDD_2023_Annex_Table_Tab31.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8047B342-CADD-48D5-812B-6BE0157CBA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B8CA6BD-6A1D-469A-895B-DF0CC43D0079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{D29E71D5-F223-4730-9919-549D136F5C05}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{EE72BADD-FE04-434F-9BC0-28EA9F320B57}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab31" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab31'!$A$2:$I$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab31'!$A$1:$I$98</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1383,7 +1383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409F9A4D-683D-4A72-A6EF-87D7DEA76CDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0651028B-2B7F-49E2-9863-8E6934A3B303}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1391,16 +1391,16 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.36328125" style="59" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12.36328125" style="60" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="12.36328125" style="59" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.33203125" style="60" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="12.33203125" style="59" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1413,7 +1413,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="82.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>14</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>24</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>26</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>28</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>47.1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>30</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>47.4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
         <v>32</v>
       </c>
@@ -1782,10 +1782,10 @@
         <v>73.52</v>
       </c>
       <c r="F13" s="24">
-        <v>28.944616723593899</v>
+        <v>28.9458738496504</v>
       </c>
       <c r="G13" s="25">
-        <v>33.238860508478602</v>
+        <v>33.239513643544903</v>
       </c>
       <c r="H13" s="24">
         <v>65.742857142857204</v>
@@ -1797,7 +1797,7 @@
         <v>34.485714285714302</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>34</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>36</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>38</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>40</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>42</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>44</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>38.6</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>46</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>48</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>50</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="22" t="s">
         <v>32</v>
       </c>
@@ -2102,10 +2102,10 @@
         <v>92.775000000000006</v>
       </c>
       <c r="F23" s="24">
-        <v>35.551168098173399</v>
+        <v>35.551194138485997</v>
       </c>
       <c r="G23" s="25">
-        <v>39.103106513558402</v>
+        <v>39.141113217542497</v>
       </c>
       <c r="H23" s="24">
         <v>72.5</v>
@@ -2117,7 +2117,7 @@
         <v>36.825000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>53</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>55</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>57</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>59</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>61</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>63</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>65</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>67</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>69</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>71</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>73</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>75</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>77</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>79</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>37.9</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="22" t="s">
         <v>32</v>
       </c>
@@ -2582,10 +2582,10 @@
         <v>77.540000000000006</v>
       </c>
       <c r="F38" s="24">
-        <v>27.858156372396099</v>
+        <v>27.8583101456707</v>
       </c>
       <c r="G38" s="25">
-        <v>37.024415391017101</v>
+        <v>37.024542271840403</v>
       </c>
       <c r="H38" s="24">
         <v>64.237499999999997</v>
@@ -2597,7 +2597,7 @@
         <v>29.512499999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>82</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>84</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>86</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>88</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>90</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>45.8</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>92</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="22" t="s">
         <v>32</v>
       </c>
@@ -2806,10 +2806,10 @@
         <v>73.1666666666667</v>
       </c>
       <c r="F45" s="24">
-        <v>29.187884856894399</v>
+        <v>29.187883490849298</v>
       </c>
       <c r="G45" s="25">
-        <v>32.271606755037901</v>
+        <v>32.2716211970004</v>
       </c>
       <c r="H45" s="24">
         <v>53.5</v>
@@ -2821,7 +2821,7 @@
         <v>37.575000000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>95</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>97</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>99</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>101</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>66.900000000000006</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>103</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>105</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>107</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>109</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>111</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>43.1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>113</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>63.7</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>115</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>117</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>119</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>121</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>42.4</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>123</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>50.6</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="22" t="s">
         <v>32</v>
       </c>
@@ -3318,10 +3318,10 @@
         <v>84.092307692307699</v>
       </c>
       <c r="F61" s="24">
-        <v>45.048609969726101</v>
+        <v>45.045905757450598</v>
       </c>
       <c r="G61" s="25">
-        <v>50.072982680359303</v>
+        <v>50.063165609684901</v>
       </c>
       <c r="H61" s="24">
         <v>70.474999999999994</v>
@@ -3333,7 +3333,7 @@
         <v>46.325000000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="32" t="s">
         <v>32</v>
       </c>
@@ -3350,10 +3350,10 @@
         <v>79.86</v>
       </c>
       <c r="F62" s="34">
-        <v>33.095499071903099</v>
+        <v>33.097542292498098</v>
       </c>
       <c r="G62" s="35">
-        <v>38.081910700890099</v>
+        <v>38.084196775311398</v>
       </c>
       <c r="H62" s="34">
         <v>66.394285714285701</v>
@@ -3365,7 +3365,7 @@
         <v>38.028571428571396</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="32" t="s">
         <v>32</v>
       </c>
@@ -3382,10 +3382,10 @@
         <v>41.704597701149403</v>
       </c>
       <c r="F63" s="38">
-        <v>16.661437465065301</v>
+        <v>16.667448396873901</v>
       </c>
       <c r="G63" s="39">
-        <v>18.848375928823099</v>
+        <v>18.8561065918148</v>
       </c>
       <c r="H63" s="38">
         <v>46.395312500000003</v>
@@ -3397,7 +3397,7 @@
         <v>22.931746031745998</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="41" t="s">
         <v>32</v>
       </c>
@@ -3414,10 +3414,10 @@
         <v>57.818181818181799</v>
       </c>
       <c r="F64" s="34">
-        <v>29.845690604842499</v>
+        <v>29.830368191411399</v>
       </c>
       <c r="G64" s="35">
-        <v>35.1782096885388</v>
+        <v>35.156048141931699</v>
       </c>
       <c r="H64" s="34">
         <v>69.738461538461607</v>
@@ -3429,7 +3429,7 @@
         <v>39.553846153846202</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="41" t="s">
         <v>32</v>
       </c>
@@ -3446,10 +3446,10 @@
         <v>72.95</v>
       </c>
       <c r="F65" s="43">
-        <v>14.6222145469468</v>
+        <v>14.622214384119699</v>
       </c>
       <c r="G65" s="44">
-        <v>17.675093716528998</v>
+        <v>17.675093100166901</v>
       </c>
       <c r="H65" s="43">
         <v>41.759090909090901</v>
@@ -3461,7 +3461,7 @@
         <v>18.2136363636364</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="41" t="s">
         <v>32</v>
       </c>
@@ -3478,10 +3478,10 @@
         <v>53.722047244094497</v>
       </c>
       <c r="F66" s="47">
-        <v>17.444689734354601</v>
+        <v>17.4503095022534</v>
       </c>
       <c r="G66" s="48">
-        <v>19.7889421733211</v>
+        <v>19.796419162071999</v>
       </c>
       <c r="H66" s="47">
         <v>53.465656565656602</v>
@@ -3493,7 +3493,7 @@
         <v>28.3234693877551</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="41" t="s">
         <v>32</v>
       </c>
@@ -3510,10 +3510,10 @@
         <v>77.335294117647095</v>
       </c>
       <c r="F67" s="51">
-        <v>29.505618223954201</v>
+        <v>29.506919722778001</v>
       </c>
       <c r="G67" s="52">
-        <v>33.913738007329798</v>
+        <v>33.914813030885803</v>
       </c>
       <c r="H67" s="51">
         <v>62.985714285714302</v>
@@ -3525,7 +3525,7 @@
         <v>30.342857142857099</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="41" t="s">
         <v>32</v>
       </c>
@@ -3542,10 +3542,10 @@
         <v>81.711111111111094</v>
       </c>
       <c r="F68" s="43">
-        <v>35.923758618056702</v>
+        <v>35.926316842943798</v>
       </c>
       <c r="G68" s="44">
-        <v>41.1874113228426</v>
+        <v>41.186639592389298</v>
       </c>
       <c r="H68" s="43">
         <v>65.761111111111106</v>
@@ -3557,7 +3557,7 @@
         <v>40.811111111111103</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="41" t="s">
         <v>32</v>
       </c>
@@ -3574,10 +3574,10 @@
         <v>90.933333333333394</v>
       </c>
       <c r="F69" s="43">
-        <v>34.396656889463102</v>
+        <v>34.396623528155096</v>
       </c>
       <c r="G69" s="44">
-        <v>39.649865177277597</v>
+        <v>39.649967043318597</v>
       </c>
       <c r="H69" s="43">
         <v>72.683333333333294</v>
@@ -3589,7 +3589,7 @@
         <v>36.766666666666701</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="41" t="s">
         <v>32</v>
       </c>
@@ -3606,10 +3606,10 @@
         <v>90.216666666666697</v>
       </c>
       <c r="F70" s="43">
-        <v>37.485582678698201</v>
+        <v>37.485597620657501</v>
       </c>
       <c r="G70" s="44">
-        <v>40.550318694690297</v>
+        <v>40.566468118392997</v>
       </c>
       <c r="H70" s="43">
         <v>72.5</v>
@@ -3621,7 +3621,7 @@
         <v>36.825000000000003</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="41" t="s">
         <v>32</v>
       </c>
@@ -3638,10 +3638,10 @@
         <v>84.092307692307699</v>
       </c>
       <c r="F71" s="43">
-        <v>45.048609969726101</v>
+        <v>45.045905757450598</v>
       </c>
       <c r="G71" s="44">
-        <v>50.072982680359303</v>
+        <v>50.063165609684901</v>
       </c>
       <c r="H71" s="43">
         <v>70.474999999999994</v>
@@ -3653,7 +3653,7 @@
         <v>46.325000000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="41" t="s">
         <v>32</v>
       </c>
@@ -3670,10 +3670,10 @@
         <v>77.319999999999993</v>
       </c>
       <c r="F72" s="43">
-        <v>24.4610507487943</v>
+        <v>24.4613588914941</v>
       </c>
       <c r="G72" s="44">
-        <v>33.170097088185699</v>
+        <v>33.170413475191303</v>
       </c>
       <c r="H72" s="43">
         <v>61.6</v>
@@ -3685,7 +3685,7 @@
         <v>28.733333333333299</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="41" t="s">
         <v>32</v>
       </c>
@@ -3702,10 +3702,10 @@
         <v>75.62</v>
       </c>
       <c r="F73" s="43">
-        <v>31.390574520253601</v>
+        <v>31.390991222289099</v>
       </c>
       <c r="G73" s="44">
-        <v>35.746629057349999</v>
+        <v>35.746579179312199</v>
       </c>
       <c r="H73" s="43">
         <v>68.290000000000006</v>
@@ -3717,7 +3717,7 @@
         <v>34.369999999999997</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="41" t="s">
         <v>32</v>
       </c>
@@ -3734,10 +3734,10 @@
         <v>74.900000000000006</v>
       </c>
       <c r="F74" s="43">
-        <v>29.0767895762995</v>
+        <v>29.076790381740999</v>
       </c>
       <c r="G74" s="44">
-        <v>33.157172721886198</v>
+        <v>33.1571739322086</v>
       </c>
       <c r="H74" s="43">
         <v>57</v>
@@ -3749,7 +3749,7 @@
         <v>42.533333333333303</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="41" t="s">
         <v>32</v>
       </c>
@@ -3766,10 +3766,10 @@
         <v>83.424999999999997</v>
       </c>
       <c r="F75" s="47">
-        <v>37.194110406794302</v>
+        <v>37.194096678801898</v>
       </c>
       <c r="G75" s="48">
-        <v>42.3305047577919</v>
+        <v>42.327929194931599</v>
       </c>
       <c r="H75" s="47">
         <v>58</v>
@@ -3781,7 +3781,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="41" t="s">
         <v>32</v>
       </c>
@@ -3798,10 +3798,10 @@
         <v>71.342857142857198</v>
       </c>
       <c r="F76" s="51">
-        <v>23.185484504003199</v>
+        <v>23.185482896023601</v>
       </c>
       <c r="G76" s="52">
-        <v>26.541724472037298</v>
+        <v>26.541721292280599</v>
       </c>
       <c r="H76" s="51">
         <v>44.9375</v>
@@ -3813,7 +3813,7 @@
         <v>15.9625</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="41" t="s">
         <v>32</v>
       </c>
@@ -3830,10 +3830,10 @@
         <v>54.727272727272698</v>
       </c>
       <c r="F77" s="43">
-        <v>30.713976506919401</v>
+        <v>30.7155199519975</v>
       </c>
       <c r="G77" s="44">
-        <v>36.522084911411</v>
+        <v>36.5236278875389</v>
       </c>
       <c r="H77" s="43">
         <v>69.412499999999994</v>
@@ -3845,7 +3845,7 @@
         <v>37.362499999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="41" t="s">
         <v>32</v>
       </c>
@@ -3862,10 +3862,10 @@
         <v>8.6807692307692292</v>
       </c>
       <c r="F78" s="43">
-        <v>18.529163798793999</v>
+        <v>18.529082723174401</v>
       </c>
       <c r="G78" s="44">
-        <v>19.552255903085399</v>
+        <v>19.552133054814899</v>
       </c>
       <c r="H78" s="43">
         <v>36.615384615384599</v>
@@ -3877,7 +3877,7 @@
         <v>20.125</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="41" t="s">
         <v>32</v>
       </c>
@@ -3894,10 +3894,10 @@
         <v>14.8121212121212</v>
       </c>
       <c r="F79" s="47">
-        <v>14.400089551889801</v>
+        <v>14.413877959767699</v>
       </c>
       <c r="G79" s="48">
-        <v>15.337807197482601</v>
+        <v>15.3533028677018</v>
       </c>
       <c r="H79" s="47">
         <v>35.361538461538501</v>
@@ -3909,7 +3909,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="41" t="s">
         <v>32</v>
       </c>
@@ -3926,10 +3926,10 @@
         <v>82.974999999999994</v>
       </c>
       <c r="F80" s="51">
-        <v>31.373430935684102</v>
+        <v>31.373435624011002</v>
       </c>
       <c r="G80" s="52">
-        <v>36.0001314194038</v>
+        <v>36.021318858723198</v>
       </c>
       <c r="H80" s="51">
         <v>76.099999999999994</v>
@@ -3941,7 +3941,7 @@
         <v>40.766666666666701</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="41" t="s">
         <v>32</v>
       </c>
@@ -3958,10 +3958,10 @@
         <v>60.95</v>
       </c>
       <c r="F81" s="43">
-        <v>28.327572765561602</v>
+        <v>28.327735479727199</v>
       </c>
       <c r="G81" s="44">
-        <v>31.1283878938908</v>
+        <v>31.128155317501399</v>
       </c>
       <c r="H81" s="43">
         <v>45.422222222222203</v>
@@ -3973,7 +3973,7 @@
         <v>20.188888888888901</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="41" t="s">
         <v>32</v>
       </c>
@@ -3990,10 +3990,10 @@
         <v>79.5138888888889</v>
       </c>
       <c r="F82" s="43">
-        <v>33.329786574801197</v>
+        <v>33.332031878584303</v>
       </c>
       <c r="G82" s="44">
-        <v>38.413249445153099</v>
+        <v>38.413241384598898</v>
       </c>
       <c r="H82" s="43">
         <v>65.484375</v>
@@ -4005,7 +4005,7 @@
         <v>37.771875000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="41" t="s">
         <v>32</v>
       </c>
@@ -4022,10 +4022,10 @@
         <v>39.755696202531702</v>
       </c>
       <c r="F83" s="47">
-        <v>15.6371905121488</v>
+        <v>15.6443961640512</v>
       </c>
       <c r="G83" s="48">
-        <v>17.7691434173266</v>
+        <v>17.778334159390301</v>
       </c>
       <c r="H83" s="47">
         <v>46.554545454545497</v>
@@ -4037,7 +4037,7 @@
         <v>23.3888888888889</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="41" t="s">
         <v>32</v>
       </c>
@@ -4054,10 +4054,10 @@
         <v>87.521052631578996</v>
       </c>
       <c r="F84" s="51">
-        <v>29.303677120618499</v>
+        <v>29.303801327769801</v>
       </c>
       <c r="G84" s="52">
-        <v>38.721709982465903</v>
+        <v>38.722121784835402</v>
       </c>
       <c r="H84" s="51">
         <v>70.794444444444494</v>
@@ -4069,7 +4069,7 @@
         <v>36.922222222222203</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="41" t="s">
         <v>32</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>28.55</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="41" t="s">
         <v>32</v>
       </c>
@@ -4118,10 +4118,10 @@
         <v>78.064705882352996</v>
       </c>
       <c r="F86" s="43">
-        <v>35.744889961815403</v>
+        <v>35.747517889135899</v>
       </c>
       <c r="G86" s="44">
-        <v>39.982037222380001</v>
+        <v>39.984263488514102</v>
       </c>
       <c r="H86" s="43">
         <v>62.987499999999997</v>
@@ -4133,7 +4133,7 @@
         <v>41.075000000000003</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="41" t="s">
         <v>32</v>
       </c>
@@ -4150,10 +4150,10 @@
         <v>74.710526315789494</v>
       </c>
       <c r="F87" s="43">
-        <v>20.0676503632838</v>
+        <v>20.067648962232699</v>
       </c>
       <c r="G87" s="44">
-        <v>23.742129487872901</v>
+        <v>23.742132608217801</v>
       </c>
       <c r="H87" s="43">
         <v>51</v>
@@ -4165,7 +4165,7 @@
         <v>23.070833333333301</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="41" t="s">
         <v>32</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>23.608823776245099</v>
       </c>
       <c r="G88" s="44">
-        <v>29.029923427871999</v>
+        <v>29.030152891861398</v>
       </c>
       <c r="H88" s="43">
         <v>41.7</v>
@@ -4197,7 +4197,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="41" t="s">
         <v>32</v>
       </c>
@@ -4214,10 +4214,10 @@
         <v>50.696551724137898</v>
       </c>
       <c r="F89" s="43">
-        <v>19.738048482628599</v>
+        <v>19.7505540214718</v>
       </c>
       <c r="G89" s="44">
-        <v>23.034897362064299</v>
+        <v>23.046088110990699</v>
       </c>
       <c r="H89" s="43">
         <v>48.25</v>
@@ -4229,7 +4229,7 @@
         <v>24.308333333333302</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="41" t="s">
         <v>32</v>
       </c>
@@ -4246,10 +4246,10 @@
         <v>14.3722222222222</v>
       </c>
       <c r="F90" s="47">
-        <v>13.4699492428753</v>
+        <v>13.4701599887384</v>
       </c>
       <c r="G90" s="48">
-        <v>14.3949005214278</v>
+        <v>14.398615713672299</v>
       </c>
       <c r="H90" s="47">
         <v>35.914285714285697</v>
@@ -4261,7 +4261,7 @@
         <v>19.269230769230798</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="41" t="s">
         <v>32</v>
       </c>
@@ -4278,10 +4278,10 @@
         <v>86.044444444444494</v>
       </c>
       <c r="F91" s="51">
-        <v>32.758267081302201</v>
+        <v>32.758286571229497</v>
       </c>
       <c r="G91" s="52">
-        <v>41.347290593401702</v>
+        <v>41.347613258315299</v>
       </c>
       <c r="H91" s="51">
         <v>69.120833333333394</v>
@@ -4293,7 +4293,7 @@
         <v>39.154166666666697</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="41" t="s">
         <v>32</v>
       </c>
@@ -4310,10 +4310,10 @@
         <v>83.1875</v>
       </c>
       <c r="F92" s="43">
-        <v>26.992787447335299</v>
+        <v>26.992784866973199</v>
       </c>
       <c r="G92" s="44">
-        <v>37.453316142679</v>
+        <v>37.453315016141197</v>
       </c>
       <c r="H92" s="43">
         <v>45.25</v>
@@ -4325,7 +4325,7 @@
         <v>18.71</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="41" t="s">
         <v>32</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>13</v>
       </c>
       <c r="G93" s="44">
-        <v>25.1628441489786</v>
+        <v>25.183442234125199</v>
       </c>
       <c r="H93" s="43" t="s">
         <v>13</v>
@@ -4357,7 +4357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="41" t="s">
         <v>32</v>
       </c>
@@ -4374,10 +4374,10 @@
         <v>60.983333333333398</v>
       </c>
       <c r="F94" s="43">
-        <v>16.3041733550461</v>
+        <v>16.300299272693199</v>
       </c>
       <c r="G94" s="44">
-        <v>20.220619431848601</v>
+        <v>20.214241052790999</v>
       </c>
       <c r="H94" s="43">
         <v>60.9</v>
@@ -4389,7 +4389,7 @@
         <v>25.82</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="41" t="s">
         <v>32</v>
       </c>
@@ -4406,10 +4406,10 @@
         <v>83.821428571428598</v>
       </c>
       <c r="F95" s="43">
-        <v>32.211681868692899</v>
+        <v>32.216467360322603</v>
       </c>
       <c r="G95" s="44">
-        <v>38.541609168822397</v>
+        <v>38.544256091100699</v>
       </c>
       <c r="H95" s="43">
         <v>70.375</v>
@@ -4421,7 +4421,7 @@
         <v>40.375</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="41" t="s">
         <v>32</v>
       </c>
@@ -4438,10 +4438,10 @@
         <v>62.16</v>
       </c>
       <c r="F96" s="47">
-        <v>38.473779332045503</v>
+        <v>38.473727070833299</v>
       </c>
       <c r="G96" s="48">
-        <v>39.630844102541801</v>
+        <v>39.630360849614199</v>
       </c>
       <c r="H96" s="47">
         <v>39.479999999999997</v>
@@ -4453,7 +4453,7 @@
         <v>22.633333333333301</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="41" t="s">
         <v>32</v>
       </c>
@@ -4470,10 +4470,10 @@
         <v>83.623999999999995</v>
       </c>
       <c r="F97" s="51">
-        <v>39.778735413552802</v>
+        <v>39.780727852131903</v>
       </c>
       <c r="G97" s="52">
-        <v>45.848600024465</v>
+        <v>45.8455662428415</v>
       </c>
       <c r="H97" s="51">
         <v>67.7869565217391</v>
@@ -4485,7 +4485,7 @@
         <v>41.686956521739098</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="41" t="s">
         <v>32</v>
       </c>
@@ -4502,10 +4502,10 @@
         <v>81.366666666666703</v>
       </c>
       <c r="F98" s="47">
-        <v>26.2350355615396</v>
+        <v>26.235035491502199</v>
       </c>
       <c r="G98" s="48">
-        <v>31.150408057291202</v>
+        <v>31.150406540272101</v>
       </c>
       <c r="H98" s="47">
         <v>56.766666666666701</v>
@@ -4517,7 +4517,7 @@
         <v>23.725000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="54"/>
       <c r="B99" s="55"/>
       <c r="C99" s="56"/>
@@ -4529,7 +4529,7 @@
       <c r="I99" s="56"/>
       <c r="J99" s="56"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>163</v>
       </c>
@@ -4542,7 +4542,7 @@
       <c r="I100" s="57"/>
       <c r="J100" s="57"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>164</v>
       </c>
@@ -4555,7 +4555,7 @@
       <c r="I101" s="57"/>
       <c r="J101" s="57"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>165</v>
       </c>
@@ -4568,7 +4568,7 @@
       <c r="I102" s="57"/>
       <c r="J102" s="57"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>166</v>
       </c>
@@ -4581,7 +4581,7 @@
       <c r="I103" s="57"/>
       <c r="J103" s="57"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>167</v>
       </c>
@@ -4594,7 +4594,7 @@
       <c r="I104" s="57"/>
       <c r="J104" s="57"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C105" s="57"/>
       <c r="D105" s="57"/>
       <c r="E105" s="57"/>
@@ -4604,7 +4604,7 @@
       <c r="I105" s="57"/>
       <c r="J105" s="57"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C106" s="57"/>
       <c r="D106" s="57"/>
       <c r="E106" s="57"/>
@@ -4614,7 +4614,7 @@
       <c r="I106" s="57"/>
       <c r="J106" s="57"/>
     </row>
-    <row r="107" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B107" s="58" t="s">
         <v>168</v>
       </c>
@@ -4627,7 +4627,7 @@
       <c r="I107" s="57"/>
       <c r="J107" s="57"/>
     </row>
-    <row r="108" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B108" s="58"/>
       <c r="C108" s="57"/>
       <c r="D108" s="57"/>
@@ -4638,7 +4638,7 @@
       <c r="I108" s="57"/>
       <c r="J108" s="57"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>171</v>
       </c>
@@ -4651,7 +4651,7 @@
       <c r="I109" s="57"/>
       <c r="J109" s="57"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>172</v>
       </c>
@@ -4664,7 +4664,7 @@
       <c r="I110" s="57"/>
       <c r="J110" s="57"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>173</v>
       </c>
@@ -4677,7 +4677,7 @@
       <c r="I111" s="57"/>
       <c r="J111" s="57"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>169</v>
       </c>
@@ -4690,7 +4690,7 @@
       <c r="I112" s="57"/>
       <c r="J112" s="57"/>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
         <v>170</v>
       </c>
@@ -4703,7 +4703,7 @@
       <c r="I113" s="57"/>
       <c r="J113" s="57"/>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="57"/>
       <c r="D114" s="57"/>
@@ -4716,12 +4716,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{BAE868B0-EB72-4EAC-8D48-97C9E7F03998}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{7421DA4E-601F-40A1-A2B7-691FE5BF1736}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{8468E8C1-53FC-4D71-88CE-CEA915927658}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{84C26AAF-9D3F-43C7-A56D-4488C2B8DC33}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{193AA041-1181-4B36-BC95-56808362109A}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{71BD46B5-8E31-4EEE-BE31-3896885CAC80}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{AC9CAB38-658B-4AE3-911C-08E040BC2C28}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{A4AE20E0-3DE6-44D6-9639-24CC4601CBBC}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{D0D146B5-F97D-4444-A6DF-8C6DC62DF41E}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{473C71B0-38E0-42C8-A40B-0D3B9A99CB34}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{33E5E1E7-4D34-4993-985E-07F3BE6C90A2}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{9DA05AAC-415A-4D60-A1B4-69978647A63A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
